--- a/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.02528841084671</v>
+        <v>10.02528841084674</v>
       </c>
       <c r="D2">
-        <v>22.10059768246307</v>
+        <v>22.10059768246341</v>
       </c>
       <c r="E2">
-        <v>44.17774455966128</v>
+        <v>44.1777445596619</v>
       </c>
       <c r="F2">
-        <v>123.7804177798003</v>
+        <v>123.7804177798021</v>
       </c>
       <c r="G2">
-        <v>102.2962262180001</v>
+        <v>102.2962262180016</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.416796861206171</v>
+        <v>8.416796861206064</v>
       </c>
       <c r="D3">
-        <v>18.22434202940741</v>
+        <v>18.22434202940739</v>
       </c>
       <c r="E3">
-        <v>35.72129325917261</v>
+        <v>35.72129325917255</v>
       </c>
       <c r="F3">
-        <v>103.0084109192312</v>
+        <v>103.0084109192306</v>
       </c>
       <c r="G3">
-        <v>85.05047875391925</v>
+        <v>85.05047875391878</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -470,19 +470,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.739785482956386</v>
+        <v>7.739785482956435</v>
       </c>
       <c r="D4">
-        <v>16.66649438782832</v>
+        <v>16.6664943878282</v>
       </c>
       <c r="E4">
-        <v>32.50393556016415</v>
+        <v>32.50393556016411</v>
       </c>
       <c r="F4">
-        <v>94.45448552913791</v>
+        <v>94.45448552913783</v>
       </c>
       <c r="G4">
-        <v>77.96141419873301</v>
+        <v>77.96141419873291</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -499,19 +499,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.485295136271344</v>
+        <v>7.485295136271432</v>
       </c>
       <c r="D5">
-        <v>16.08826166252772</v>
+        <v>16.08826166252759</v>
       </c>
       <c r="E5">
-        <v>31.32655036308034</v>
+        <v>31.32655036308036</v>
       </c>
       <c r="F5">
-        <v>91.25989439739098</v>
+        <v>91.25989439739099</v>
       </c>
       <c r="G5">
-        <v>75.31470594856118</v>
+        <v>75.31470594856114</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.443869427166964</v>
+        <v>7.443869427166877</v>
       </c>
       <c r="D6">
-        <v>15.99447035421142</v>
+        <v>15.99447035421139</v>
       </c>
       <c r="E6">
-        <v>31.13631689984636</v>
+        <v>31.13631689984621</v>
       </c>
       <c r="F6">
-        <v>90.74088274726803</v>
+        <v>90.74088274726745</v>
       </c>
       <c r="G6">
-        <v>74.88473006721082</v>
+        <v>74.8847300672103</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -557,19 +557,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.736289782976444</v>
+        <v>7.736289782976328</v>
       </c>
       <c r="D7">
-        <v>16.65852698193557</v>
+        <v>16.65852698193558</v>
       </c>
       <c r="E7">
-        <v>32.48765673874846</v>
+        <v>32.48765673874858</v>
       </c>
       <c r="F7">
-        <v>94.41053137794513</v>
+        <v>94.41053137794539</v>
       </c>
       <c r="G7">
-        <v>77.92499625566481</v>
+        <v>77.92499625566502</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D8">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E8">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F8">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G8">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -615,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D9">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E9">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F9">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G9">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -644,19 +644,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D10">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E10">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F10">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G10">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -673,19 +673,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D11">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E11">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F11">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G11">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -702,19 +702,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D12">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E12">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F12">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G12">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -731,19 +731,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D13">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E13">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F13">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G13">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -760,19 +760,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D14">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E14">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F14">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G14">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D15">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E15">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F15">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G15">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D16">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E16">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F16">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G16">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D17">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E17">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F17">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G17">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D18">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E18">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F18">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G18">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D19">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E19">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F19">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G19">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D20">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E20">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F20">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G20">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -963,19 +963,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D21">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E21">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F21">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G21">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D22">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E22">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F22">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G22">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1021,19 +1021,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D23">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E23">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F23">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G23">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1050,19 +1050,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D24">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E24">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F24">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G24">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.313084727143181</v>
+        <v>9.313084727142961</v>
       </c>
       <c r="D25">
-        <v>20.34484747643302</v>
+        <v>20.34484747643277</v>
       </c>
       <c r="E25">
-        <v>40.2437839925183</v>
+        <v>40.24378399251788</v>
       </c>
       <c r="F25">
-        <v>114.4847123239519</v>
+        <v>114.4847123239503</v>
       </c>
       <c r="G25">
-        <v>94.57087520501425</v>
+        <v>94.57087520501294</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.02528841084674</v>
+        <v>10.02528841084671</v>
       </c>
       <c r="D2">
-        <v>22.10059768246341</v>
+        <v>22.10059768246307</v>
       </c>
       <c r="E2">
-        <v>44.1777445596619</v>
+        <v>44.17774455966128</v>
       </c>
       <c r="F2">
-        <v>123.7804177798021</v>
+        <v>123.7804177798003</v>
       </c>
       <c r="G2">
-        <v>102.2962262180016</v>
+        <v>102.2962262180001</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -441,19 +441,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.416796861206064</v>
+        <v>8.416796861206171</v>
       </c>
       <c r="D3">
-        <v>18.22434202940739</v>
+        <v>18.22434202940741</v>
       </c>
       <c r="E3">
-        <v>35.72129325917255</v>
+        <v>35.72129325917261</v>
       </c>
       <c r="F3">
-        <v>103.0084109192306</v>
+        <v>103.0084109192312</v>
       </c>
       <c r="G3">
-        <v>85.05047875391878</v>
+        <v>85.05047875391925</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -470,19 +470,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.739785482956435</v>
+        <v>7.739785482956386</v>
       </c>
       <c r="D4">
-        <v>16.6664943878282</v>
+        <v>16.66649438782832</v>
       </c>
       <c r="E4">
-        <v>32.50393556016411</v>
+        <v>32.50393556016415</v>
       </c>
       <c r="F4">
-        <v>94.45448552913783</v>
+        <v>94.45448552913791</v>
       </c>
       <c r="G4">
-        <v>77.96141419873291</v>
+        <v>77.96141419873301</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -499,19 +499,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.485295136271432</v>
+        <v>7.485295136271344</v>
       </c>
       <c r="D5">
-        <v>16.08826166252759</v>
+        <v>16.08826166252772</v>
       </c>
       <c r="E5">
-        <v>31.32655036308036</v>
+        <v>31.32655036308034</v>
       </c>
       <c r="F5">
-        <v>91.25989439739099</v>
+        <v>91.25989439739098</v>
       </c>
       <c r="G5">
-        <v>75.31470594856114</v>
+        <v>75.31470594856118</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -528,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.443869427166877</v>
+        <v>7.443869427166964</v>
       </c>
       <c r="D6">
-        <v>15.99447035421139</v>
+        <v>15.99447035421142</v>
       </c>
       <c r="E6">
-        <v>31.13631689984621</v>
+        <v>31.13631689984636</v>
       </c>
       <c r="F6">
-        <v>90.74088274726745</v>
+        <v>90.74088274726803</v>
       </c>
       <c r="G6">
-        <v>74.8847300672103</v>
+        <v>74.88473006721082</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -557,19 +557,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.736289782976328</v>
+        <v>7.736289782976444</v>
       </c>
       <c r="D7">
-        <v>16.65852698193558</v>
+        <v>16.65852698193557</v>
       </c>
       <c r="E7">
-        <v>32.48765673874858</v>
+        <v>32.48765673874846</v>
       </c>
       <c r="F7">
-        <v>94.41053137794539</v>
+        <v>94.41053137794513</v>
       </c>
       <c r="G7">
-        <v>77.92499625566502</v>
+        <v>77.92499625566481</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D8">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E8">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F8">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G8">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -615,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D9">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E9">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F9">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G9">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -644,19 +644,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D10">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E10">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F10">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G10">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -673,19 +673,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D11">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E11">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F11">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G11">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -702,19 +702,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D12">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E12">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F12">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G12">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -731,19 +731,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D13">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E13">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F13">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G13">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -760,19 +760,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D14">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E14">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F14">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G14">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D15">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E15">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F15">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G15">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D16">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E16">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F16">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G16">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D17">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E17">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F17">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G17">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -876,19 +876,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D18">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E18">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F18">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G18">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D19">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E19">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F19">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G19">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D20">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E20">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F20">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G20">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -963,19 +963,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D21">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E21">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F21">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G21">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D22">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E22">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F22">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G22">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1021,19 +1021,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D23">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E23">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F23">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G23">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1050,19 +1050,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D24">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E24">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F24">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G24">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.313084727142961</v>
+        <v>9.313084727143181</v>
       </c>
       <c r="D25">
-        <v>20.34484747643277</v>
+        <v>20.34484747643302</v>
       </c>
       <c r="E25">
-        <v>40.24378399251788</v>
+        <v>40.2437839925183</v>
       </c>
       <c r="F25">
-        <v>114.4847123239503</v>
+        <v>114.4847123239519</v>
       </c>
       <c r="G25">
-        <v>94.57087520501294</v>
+        <v>94.57087520501425</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,700 +406,775 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.02528841084671</v>
+        <v>9.992458457477928</v>
       </c>
       <c r="D2">
-        <v>22.10059768246307</v>
+        <v>21.98225282346102</v>
       </c>
       <c r="E2">
-        <v>44.17774455966128</v>
+        <v>43.98113016251371</v>
       </c>
       <c r="F2">
-        <v>123.7804177798003</v>
+        <v>123.212070970843</v>
       </c>
       <c r="G2">
-        <v>102.2962262180001</v>
+        <v>102.0675161284849</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>101.4976872478014</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.416796861206171</v>
+        <v>8.409037323738817</v>
       </c>
       <c r="D3">
-        <v>18.22434202940741</v>
+        <v>18.17741688872676</v>
       </c>
       <c r="E3">
-        <v>35.72129325917261</v>
+        <v>35.68195340946671</v>
       </c>
       <c r="F3">
-        <v>103.0084109192312</v>
+        <v>102.7984475850326</v>
       </c>
       <c r="G3">
-        <v>85.05047875391925</v>
+        <v>85.07982637753229</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>84.60103361461961</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.739785482956386</v>
+        <v>7.734704495727769</v>
       </c>
       <c r="D4">
-        <v>16.66649438782832</v>
+        <v>16.6285599096763</v>
       </c>
       <c r="E4">
-        <v>32.50393556016415</v>
+        <v>32.47928229244797</v>
       </c>
       <c r="F4">
-        <v>94.45448552913791</v>
+        <v>94.28863158757069</v>
       </c>
       <c r="G4">
-        <v>77.96141419873301</v>
+        <v>78.01052700438889</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>77.57713888605488</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.485295136271344</v>
+        <v>7.480927898664086</v>
       </c>
       <c r="D5">
-        <v>16.08826166252772</v>
+        <v>16.05294404911107</v>
       </c>
       <c r="E5">
-        <v>31.32655036308034</v>
+        <v>31.30565749533755</v>
       </c>
       <c r="F5">
-        <v>91.25989439739098</v>
+        <v>91.1067051291856</v>
       </c>
       <c r="G5">
-        <v>75.31470594856118</v>
+        <v>75.36802427841849</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>74.95312226007852</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.443869427166964</v>
+        <v>7.439607477313428</v>
       </c>
       <c r="D6">
-        <v>15.99447035421142</v>
+        <v>15.95955060783804</v>
       </c>
       <c r="E6">
-        <v>31.13631689984636</v>
+        <v>31.11597244082084</v>
       </c>
       <c r="F6">
-        <v>90.74088274726803</v>
+        <v>90.58961002521747</v>
       </c>
       <c r="G6">
-        <v>74.88473006721082</v>
+        <v>74.93861415528301</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>74.52680372733191</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.736289782976444</v>
+        <v>7.731219451347182</v>
       </c>
       <c r="D7">
-        <v>16.65852698193557</v>
+        <v>16.62063065062049</v>
       </c>
       <c r="E7">
-        <v>32.48765673874846</v>
+        <v>32.46306013829522</v>
       </c>
       <c r="F7">
-        <v>94.41053137794513</v>
+        <v>94.24486274169217</v>
       </c>
       <c r="G7">
-        <v>77.92499625566481</v>
+        <v>77.97417613555433</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>77.54103625533176</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D8">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E8">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F8">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G8">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D9">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E9">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F9">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G9">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D10">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E10">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F10">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G10">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D11">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E11">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F11">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G11">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D12">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E12">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F12">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G12">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D13">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E13">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F13">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G13">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D14">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E14">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F14">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G14">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D15">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E15">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F15">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G15">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D16">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E16">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F16">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G16">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D17">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E17">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F17">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G17">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D18">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E18">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F18">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G18">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D19">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E19">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F19">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G19">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D20">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E20">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F20">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G20">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D21">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E21">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F21">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G21">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D22">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E22">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F22">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G22">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D23">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E23">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F23">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G23">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D24">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E24">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F24">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G24">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>9.313084727143181</v>
+        <v>9.297977919438321</v>
       </c>
       <c r="D25">
-        <v>20.34484747643302</v>
+        <v>20.27595891742429</v>
       </c>
       <c r="E25">
-        <v>40.2437839925183</v>
+        <v>40.16096815846743</v>
       </c>
       <c r="F25">
-        <v>114.4847123239519</v>
+        <v>114.1651357680668</v>
       </c>
       <c r="G25">
-        <v>94.57087520501425</v>
+        <v>94.53157991496666</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>93.99952932448276</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.318969819273645</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.118794240918129</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.840525750403131</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>26.85540972890934</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.06964318852808</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.02168383906592</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.51740392272798</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.642816235069452</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.27728451321378</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.3191007665586</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.27929087750499</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.162641821153427</v>
+      </c>
+      <c r="D3">
+        <v>4.994061903543552</v>
+      </c>
+      <c r="E3">
+        <v>7.756659261147886</v>
+      </c>
+      <c r="F3">
+        <v>26.17182605585248</v>
+      </c>
+      <c r="G3">
+        <v>32.8866156712713</v>
+      </c>
+      <c r="H3">
+        <v>10.9404279527643</v>
+      </c>
+      <c r="I3">
+        <v>18.0860636600228</v>
+      </c>
+      <c r="J3">
+        <v>5.678550735937414</v>
+      </c>
+      <c r="K3">
+        <v>17.97236671196495</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>14.53922422636975</v>
+      </c>
+      <c r="N3">
+        <v>12.49430041614203</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.063313673218651</v>
+      </c>
+      <c r="D4">
+        <v>4.917512022361895</v>
+      </c>
+      <c r="E4">
+        <v>7.708898730356835</v>
+      </c>
+      <c r="F4">
+        <v>25.77182793428279</v>
+      </c>
+      <c r="G4">
+        <v>32.1827714556949</v>
+      </c>
+      <c r="H4">
+        <v>10.90028684806849</v>
+      </c>
+      <c r="I4">
+        <v>17.83593674377217</v>
+      </c>
+      <c r="J4">
+        <v>5.702853253406809</v>
+      </c>
+      <c r="K4">
+        <v>17.12542671847385</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.04557493695235</v>
+      </c>
+      <c r="N4">
+        <v>12.62928146434479</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.022027349975272</v>
+      </c>
+      <c r="D5">
+        <v>4.886362183263238</v>
+      </c>
+      <c r="E5">
+        <v>7.690367842911069</v>
+      </c>
+      <c r="F5">
+        <v>25.61384973709808</v>
+      </c>
+      <c r="G5">
+        <v>31.90188812192513</v>
+      </c>
+      <c r="H5">
+        <v>10.8862944407727</v>
+      </c>
+      <c r="I5">
+        <v>17.73772051918544</v>
+      </c>
+      <c r="J5">
+        <v>5.713335578500829</v>
+      </c>
+      <c r="K5">
+        <v>16.76871040516067</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13.84091595244383</v>
+      </c>
+      <c r="N5">
+        <v>12.68505520638239</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4.01512390066268</v>
+      </c>
+      <c r="D6">
+        <v>4.881193559896064</v>
+      </c>
+      <c r="E6">
+        <v>7.687346855948471</v>
+      </c>
+      <c r="F6">
+        <v>25.58792263616019</v>
+      </c>
+      <c r="G6">
+        <v>31.85561421773722</v>
+      </c>
+      <c r="H6">
+        <v>10.88411129369652</v>
+      </c>
+      <c r="I6">
+        <v>17.72163612915515</v>
+      </c>
+      <c r="J6">
+        <v>5.715110702796337</v>
+      </c>
+      <c r="K6">
+        <v>16.70877600934793</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.80672906847624</v>
+      </c>
+      <c r="N6">
+        <v>12.6943634165927</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4.062760104018267</v>
+      </c>
+      <c r="D7">
+        <v>4.917091694738881</v>
+      </c>
+      <c r="E7">
+        <v>7.708645053306886</v>
+      </c>
+      <c r="F7">
+        <v>25.76967696695431</v>
+      </c>
+      <c r="G7">
+        <v>32.1789589615909</v>
+      </c>
+      <c r="H7">
+        <v>10.90008868040495</v>
+      </c>
+      <c r="I7">
+        <v>17.8345971265347</v>
+      </c>
+      <c r="J7">
+        <v>5.702992297006826</v>
+      </c>
+      <c r="K7">
+        <v>17.12066292125801</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.04282864238456</v>
+      </c>
+      <c r="N7">
+        <v>12.63003051016633</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.265778927937873</v>
+      </c>
+      <c r="D8">
+        <v>5.075799913610398</v>
+      </c>
+      <c r="E8">
+        <v>7.810829819917931</v>
+      </c>
+      <c r="F8">
+        <v>26.61565822493617</v>
+      </c>
+      <c r="G8">
+        <v>33.65721917602488</v>
+      </c>
+      <c r="H8">
+        <v>10.9915921035548</v>
+      </c>
+      <c r="I8">
+        <v>18.36563320407085</v>
+      </c>
+      <c r="J8">
+        <v>5.654638101705086</v>
+      </c>
+      <c r="K8">
+        <v>18.83678398552601</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15.05339586175391</v>
+      </c>
+      <c r="N8">
+        <v>12.35282466260784</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4.636230836413319</v>
+      </c>
+      <c r="D9">
+        <v>5.385843815738819</v>
+      </c>
+      <c r="E9">
+        <v>8.041103654650888</v>
+      </c>
+      <c r="F9">
+        <v>28.4279421407288</v>
+      </c>
+      <c r="G9">
+        <v>36.72353065710259</v>
+      </c>
+      <c r="H9">
+        <v>11.2521016136206</v>
+      </c>
+      <c r="I9">
+        <v>19.52288555585463</v>
+      </c>
+      <c r="J9">
+        <v>5.579274211548397</v>
+      </c>
+      <c r="K9">
+        <v>21.8434587163454</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>16.90970884480145</v>
+      </c>
+      <c r="N9">
+        <v>11.83169268697748</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4.890287007603758</v>
+      </c>
+      <c r="D10">
+        <v>5.611118096654756</v>
+      </c>
+      <c r="E10">
+        <v>8.228832550290827</v>
+      </c>
+      <c r="F10">
+        <v>29.84870558140538</v>
+      </c>
+      <c r="G10">
+        <v>39.06504347919451</v>
+      </c>
+      <c r="H10">
+        <v>11.49778750242618</v>
+      </c>
+      <c r="I10">
+        <v>20.4424306783596</v>
+      </c>
+      <c r="J10">
+        <v>5.53684720943626</v>
+      </c>
+      <c r="K10">
+        <v>23.83984127550563</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>18.39705225530078</v>
+      </c>
+      <c r="N10">
+        <v>11.46099943240284</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.001742488216151</v>
+      </c>
+      <c r="D11">
+        <v>5.712731828056807</v>
+      </c>
+      <c r="E11">
+        <v>8.318326984133144</v>
+      </c>
+      <c r="F11">
+        <v>30.51370474953529</v>
+      </c>
+      <c r="G11">
+        <v>40.14744377102242</v>
+      </c>
+      <c r="H11">
+        <v>11.62233489247411</v>
+      </c>
+      <c r="I11">
+        <v>20.87556277340579</v>
+      </c>
+      <c r="J11">
+        <v>5.520618966567879</v>
+      </c>
+      <c r="K11">
+        <v>24.70328463598757</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>19.06711837524125</v>
+      </c>
+      <c r="N11">
+        <v>11.29466579947761</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.04334461819851</v>
+      </c>
+      <c r="D12">
+        <v>5.751063102433621</v>
+      </c>
+      <c r="E12">
+        <v>8.352810366849171</v>
+      </c>
+      <c r="F12">
+        <v>30.76816841100361</v>
+      </c>
+      <c r="G12">
+        <v>40.55968936259065</v>
+      </c>
+      <c r="H12">
+        <v>11.67141448674289</v>
+      </c>
+      <c r="I12">
+        <v>21.04169890428012</v>
+      </c>
+      <c r="J12">
+        <v>5.51493953995106</v>
+      </c>
+      <c r="K12">
+        <v>25.02393991264855</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>19.31603600352759</v>
+      </c>
+      <c r="N12">
+        <v>11.23198146870484</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.034411855959636</v>
+      </c>
+      <c r="D13">
+        <v>5.742814677846011</v>
+      </c>
+      <c r="E13">
+        <v>8.345357257038462</v>
+      </c>
+      <c r="F13">
+        <v>30.71324801429013</v>
+      </c>
+      <c r="G13">
+        <v>40.47080095133484</v>
+      </c>
+      <c r="H13">
+        <v>11.66075785871106</v>
+      </c>
+      <c r="I13">
+        <v>21.00582437570681</v>
+      </c>
+      <c r="J13">
+        <v>5.516141582065184</v>
+      </c>
+      <c r="K13">
+        <v>24.95515981329586</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>19.26264000504135</v>
+      </c>
+      <c r="N13">
+        <v>11.24546864917633</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5.005177274498938</v>
+      </c>
+      <c r="D14">
+        <v>5.715888445408075</v>
+      </c>
+      <c r="E14">
+        <v>8.321152021298548</v>
+      </c>
+      <c r="F14">
+        <v>30.5345868294728</v>
+      </c>
+      <c r="G14">
+        <v>40.18131253138007</v>
+      </c>
+      <c r="H14">
+        <v>11.62633385224214</v>
+      </c>
+      <c r="I14">
+        <v>20.88918846858849</v>
+      </c>
+      <c r="J14">
+        <v>5.520142235171986</v>
+      </c>
+      <c r="K14">
+        <v>24.72979093191223</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>19.08769304661282</v>
+      </c>
+      <c r="N14">
+        <v>11.28950281772764</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4.987191342213685</v>
+      </c>
+      <c r="D15">
+        <v>5.699375489601846</v>
+      </c>
+      <c r="E15">
+        <v>8.306403103383285</v>
+      </c>
+      <c r="F15">
+        <v>30.42549496681337</v>
+      </c>
+      <c r="G15">
+        <v>40.00429798824747</v>
+      </c>
+      <c r="H15">
+        <v>11.60550000315031</v>
+      </c>
+      <c r="I15">
+        <v>20.81802130163594</v>
+      </c>
+      <c r="J15">
+        <v>5.522654167957702</v>
+      </c>
+      <c r="K15">
+        <v>24.59092763619507</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>18.97990797331571</v>
+      </c>
+      <c r="N15">
+        <v>11.31651359473649</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4.882919226789564</v>
+      </c>
+      <c r="D16">
+        <v>5.604457932334109</v>
+      </c>
+      <c r="E16">
+        <v>8.223066686434237</v>
+      </c>
+      <c r="F16">
+        <v>29.80561805075459</v>
+      </c>
+      <c r="G16">
+        <v>38.99464181364064</v>
+      </c>
+      <c r="H16">
+        <v>11.48991195558385</v>
+      </c>
+      <c r="I16">
+        <v>20.41442137943788</v>
+      </c>
+      <c r="J16">
+        <v>5.537971596462119</v>
+      </c>
+      <c r="K16">
+        <v>23.78252330643141</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>18.35258176768147</v>
+      </c>
+      <c r="N16">
+        <v>11.47191359164612</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4.817888067912586</v>
+      </c>
+      <c r="D17">
+        <v>5.545989983798055</v>
+      </c>
+      <c r="E17">
+        <v>8.172994664580065</v>
+      </c>
+      <c r="F17">
+        <v>29.43009134771617</v>
+      </c>
+      <c r="G17">
+        <v>38.37956553995879</v>
+      </c>
+      <c r="H17">
+        <v>11.42233235171967</v>
+      </c>
+      <c r="I17">
+        <v>20.17060988589218</v>
+      </c>
+      <c r="J17">
+        <v>5.548171704456263</v>
+      </c>
+      <c r="K17">
+        <v>23.27522150329232</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>17.95904501377641</v>
+      </c>
+      <c r="N17">
+        <v>11.56781520900142</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4.780096946510008</v>
+      </c>
+      <c r="D18">
+        <v>5.512280567049854</v>
+      </c>
+      <c r="E18">
+        <v>8.14457973814692</v>
+      </c>
+      <c r="F18">
+        <v>29.21585865459313</v>
+      </c>
+      <c r="G18">
+        <v>38.02741561320984</v>
+      </c>
+      <c r="H18">
+        <v>11.384661038425</v>
+      </c>
+      <c r="I18">
+        <v>20.03177170346741</v>
+      </c>
+      <c r="J18">
+        <v>5.554326133816087</v>
+      </c>
+      <c r="K18">
+        <v>22.97921801850271</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>17.72946827136241</v>
+      </c>
+      <c r="N18">
+        <v>11.62319314553146</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4.767235479887451</v>
+      </c>
+      <c r="D19">
+        <v>5.500854128303886</v>
+      </c>
+      <c r="E19">
+        <v>8.135024952944317</v>
+      </c>
+      <c r="F19">
+        <v>29.14362719611684</v>
+      </c>
+      <c r="G19">
+        <v>37.90846731462737</v>
+      </c>
+      <c r="H19">
+        <v>11.37210966679076</v>
+      </c>
+      <c r="I19">
+        <v>19.98500381079521</v>
+      </c>
+      <c r="J19">
+        <v>5.556458609826233</v>
+      </c>
+      <c r="K19">
+        <v>22.87826856807187</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>17.65118085176612</v>
+      </c>
+      <c r="N19">
+        <v>11.64198141297609</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4.824850885853736</v>
+      </c>
+      <c r="D20">
+        <v>5.552222476538258</v>
+      </c>
+      <c r="E20">
+        <v>8.178285020328484</v>
+      </c>
+      <c r="F20">
+        <v>29.4698850114913</v>
+      </c>
+      <c r="G20">
+        <v>38.44487421694515</v>
+      </c>
+      <c r="H20">
+        <v>11.42940168961231</v>
+      </c>
+      <c r="I20">
+        <v>20.19641971993713</v>
+      </c>
+      <c r="J20">
+        <v>5.547055951911679</v>
+      </c>
+      <c r="K20">
+        <v>23.32966024296582</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>18.00127075536934</v>
+      </c>
+      <c r="N20">
+        <v>11.55758396833244</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.013780640451095</v>
+      </c>
+      <c r="D21">
+        <v>5.723801508372501</v>
+      </c>
+      <c r="E21">
+        <v>8.328245527277796</v>
+      </c>
+      <c r="F21">
+        <v>30.58699245762469</v>
+      </c>
+      <c r="G21">
+        <v>40.26627875861865</v>
+      </c>
+      <c r="H21">
+        <v>11.63639239385132</v>
+      </c>
+      <c r="I21">
+        <v>20.92338981287088</v>
+      </c>
+      <c r="J21">
+        <v>5.518954301271854</v>
+      </c>
+      <c r="K21">
+        <v>24.79615755528322</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>19.13920928121213</v>
+      </c>
+      <c r="N21">
+        <v>11.27656092576287</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.133735422435339</v>
+      </c>
+      <c r="D22">
+        <v>5.835069389885135</v>
+      </c>
+      <c r="E22">
+        <v>8.429717472992483</v>
+      </c>
+      <c r="F22">
+        <v>31.3324891459503</v>
+      </c>
+      <c r="G22">
+        <v>41.47044125017216</v>
+      </c>
+      <c r="H22">
+        <v>11.78287791975011</v>
+      </c>
+      <c r="I22">
+        <v>21.4108583061392</v>
+      </c>
+      <c r="J22">
+        <v>5.503316247084009</v>
+      </c>
+      <c r="K22">
+        <v>25.71786810799891</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>19.85486122031355</v>
+      </c>
+      <c r="N22">
+        <v>11.09464670024515</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.070038611315689</v>
+      </c>
+      <c r="D23">
+        <v>5.775769947316832</v>
+      </c>
+      <c r="E23">
+        <v>8.375241141782023</v>
+      </c>
+      <c r="F23">
+        <v>30.93320242071997</v>
+      </c>
+      <c r="G23">
+        <v>40.82651953849467</v>
+      </c>
+      <c r="H23">
+        <v>11.70364489675601</v>
+      </c>
+      <c r="I23">
+        <v>21.14955795966002</v>
+      </c>
+      <c r="J23">
+        <v>5.51140447316913</v>
+      </c>
+      <c r="K23">
+        <v>25.22925333307597</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>19.47543829545475</v>
+      </c>
+      <c r="N23">
+        <v>11.1915868559447</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>4.82170425281014</v>
+      </c>
+      <c r="D24">
+        <v>5.54940506195505</v>
+      </c>
+      <c r="E24">
+        <v>8.175892091691393</v>
+      </c>
+      <c r="F24">
+        <v>29.45188911373697</v>
+      </c>
+      <c r="G24">
+        <v>38.4153435895743</v>
+      </c>
+      <c r="H24">
+        <v>11.42620196898359</v>
+      </c>
+      <c r="I24">
+        <v>20.18474694293689</v>
+      </c>
+      <c r="J24">
+        <v>5.547559481368439</v>
+      </c>
+      <c r="K24">
+        <v>23.30506204357072</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>17.98219086829684</v>
+      </c>
+      <c r="N24">
+        <v>11.56220875382672</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4.539119301837487</v>
+      </c>
+      <c r="D25">
+        <v>5.302290516568977</v>
+      </c>
+      <c r="E25">
+        <v>7.975572620059523</v>
+      </c>
+      <c r="F25">
+        <v>27.92170134434145</v>
+      </c>
+      <c r="G25">
+        <v>35.8775823615025</v>
+      </c>
+      <c r="H25">
+        <v>11.17243411714781</v>
+      </c>
+      <c r="I25">
+        <v>19.19754452887931</v>
+      </c>
+      <c r="J25">
+        <v>5.59747258904582</v>
+      </c>
+      <c r="K25">
+        <v>21.06786648071593</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>16.42190945440655</v>
+      </c>
+      <c r="N25">
+        <v>11.97042099178575</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.318969819273645</v>
+        <v>4.409979911005498</v>
       </c>
       <c r="D2">
-        <v>5.118794240918129</v>
+        <v>8.103642006615821</v>
       </c>
       <c r="E2">
-        <v>7.840525750403131</v>
+        <v>12.743477862311</v>
       </c>
       <c r="F2">
-        <v>26.85540972890934</v>
+        <v>36.3220944133288</v>
       </c>
       <c r="G2">
-        <v>34.06964318852808</v>
+        <v>40.95254160811817</v>
       </c>
       <c r="H2">
-        <v>11.02168383906592</v>
+        <v>17.19658491585501</v>
       </c>
       <c r="I2">
-        <v>18.51740392272798</v>
+        <v>25.47273313125103</v>
       </c>
       <c r="J2">
-        <v>5.642816235069452</v>
+        <v>9.88317813655183</v>
       </c>
       <c r="K2">
-        <v>19.27728451321378</v>
+        <v>15.52051984591185</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.3191007665586</v>
+        <v>17.88226560424409</v>
       </c>
       <c r="N2">
-        <v>12.27929087750499</v>
+        <v>18.67081359058918</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.162641821153427</v>
+        <v>4.354570677511079</v>
       </c>
       <c r="D3">
-        <v>4.994061903543552</v>
+        <v>8.09585827525177</v>
       </c>
       <c r="E3">
-        <v>7.756659261147886</v>
+        <v>12.76034808263853</v>
       </c>
       <c r="F3">
-        <v>26.17182605585248</v>
+        <v>36.33872941042381</v>
       </c>
       <c r="G3">
-        <v>32.8866156712713</v>
+        <v>40.89799378580049</v>
       </c>
       <c r="H3">
-        <v>10.9404279527643</v>
+        <v>17.24063348324793</v>
       </c>
       <c r="I3">
-        <v>18.0860636600228</v>
+        <v>25.49418085073745</v>
       </c>
       <c r="J3">
-        <v>5.678550735937414</v>
+        <v>9.907994448905029</v>
       </c>
       <c r="K3">
-        <v>17.97236671196495</v>
+        <v>15.14732228422118</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.53922422636975</v>
+        <v>17.74553255921584</v>
       </c>
       <c r="N3">
-        <v>12.49430041614203</v>
+        <v>18.73461801456704</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.063313673218651</v>
+        <v>4.319705230154812</v>
       </c>
       <c r="D4">
-        <v>4.917512022361895</v>
+        <v>8.091926194027732</v>
       </c>
       <c r="E4">
-        <v>7.708898730356835</v>
+        <v>12.77254663999969</v>
       </c>
       <c r="F4">
-        <v>25.77182793428279</v>
+        <v>36.35887737466083</v>
       </c>
       <c r="G4">
-        <v>32.1827714556949</v>
+        <v>40.87867573867039</v>
       </c>
       <c r="H4">
-        <v>10.90028684806849</v>
+        <v>17.27125000468269</v>
       </c>
       <c r="I4">
-        <v>17.83593674377217</v>
+        <v>25.51420518833381</v>
       </c>
       <c r="J4">
-        <v>5.702853253406809</v>
+        <v>9.924322079756019</v>
       </c>
       <c r="K4">
-        <v>17.12542671847385</v>
+        <v>14.9163632322336</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.04557493695235</v>
+        <v>17.66426631682183</v>
       </c>
       <c r="N4">
-        <v>12.62928146434479</v>
+        <v>18.77569587930289</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.022027349975272</v>
+        <v>4.305292462703618</v>
       </c>
       <c r="D5">
-        <v>4.886362183263238</v>
+        <v>8.090538212922299</v>
       </c>
       <c r="E5">
-        <v>7.690367842911069</v>
+        <v>12.77798051683051</v>
       </c>
       <c r="F5">
-        <v>25.61384973709808</v>
+        <v>36.36958085464674</v>
       </c>
       <c r="G5">
-        <v>31.90188812192513</v>
+        <v>40.87436640163381</v>
       </c>
       <c r="H5">
-        <v>10.8862944407727</v>
+        <v>17.28462213632875</v>
       </c>
       <c r="I5">
-        <v>17.73772051918544</v>
+        <v>25.52408489296537</v>
       </c>
       <c r="J5">
-        <v>5.713335578500829</v>
+        <v>9.931250221743388</v>
       </c>
       <c r="K5">
-        <v>16.76871040516067</v>
+        <v>14.82192997036291</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.84091595244383</v>
+        <v>17.63185479672971</v>
       </c>
       <c r="N5">
-        <v>12.68505520638239</v>
+        <v>18.79291506630276</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.01512390066268</v>
+        <v>4.30288708333496</v>
       </c>
       <c r="D6">
-        <v>4.881193559896064</v>
+        <v>8.090320725199726</v>
       </c>
       <c r="E6">
-        <v>7.687346855948471</v>
+        <v>12.77891076668978</v>
       </c>
       <c r="F6">
-        <v>25.58792263616019</v>
+        <v>36.37150855762013</v>
       </c>
       <c r="G6">
-        <v>31.85561421773722</v>
+        <v>40.87386591366981</v>
       </c>
       <c r="H6">
-        <v>10.88411129369652</v>
+        <v>17.28689659758314</v>
       </c>
       <c r="I6">
-        <v>17.72163612915515</v>
+        <v>25.52582913109169</v>
       </c>
       <c r="J6">
-        <v>5.715110702796337</v>
+        <v>9.932417223366672</v>
       </c>
       <c r="K6">
-        <v>16.70877600934793</v>
+        <v>14.80623455752213</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.80672906847624</v>
+        <v>17.62651630396103</v>
       </c>
       <c r="N6">
-        <v>12.6943634165927</v>
+        <v>18.79580330943132</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.062760104018267</v>
+        <v>4.319511673909799</v>
       </c>
       <c r="D7">
-        <v>4.917091694738881</v>
+        <v>8.091906605506979</v>
       </c>
       <c r="E7">
-        <v>7.708645053306886</v>
+        <v>12.77261804889903</v>
       </c>
       <c r="F7">
-        <v>25.76967696695431</v>
+        <v>36.3590116391263</v>
       </c>
       <c r="G7">
-        <v>32.1789589615909</v>
+        <v>40.87860320016139</v>
       </c>
       <c r="H7">
-        <v>10.90008868040495</v>
+        <v>17.2714267224847</v>
       </c>
       <c r="I7">
-        <v>17.8345971265347</v>
+        <v>25.51433147306949</v>
       </c>
       <c r="J7">
-        <v>5.702992297006826</v>
+        <v>9.924414403223288</v>
       </c>
       <c r="K7">
-        <v>17.12066292125801</v>
+        <v>14.9150907600936</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.04282864238456</v>
+        <v>17.66382631112056</v>
       </c>
       <c r="N7">
-        <v>12.63003051016633</v>
+        <v>18.77592615942275</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.265778927937873</v>
+        <v>4.391054349618026</v>
       </c>
       <c r="D8">
-        <v>5.075799913610398</v>
+        <v>8.100783178167021</v>
       </c>
       <c r="E8">
-        <v>7.810829819917931</v>
+        <v>12.7489128867226</v>
       </c>
       <c r="F8">
-        <v>26.61565822493617</v>
+        <v>36.32576580430397</v>
       </c>
       <c r="G8">
-        <v>33.65721917602488</v>
+        <v>40.93079194877622</v>
       </c>
       <c r="H8">
-        <v>10.9915921035548</v>
+        <v>17.21103051713067</v>
       </c>
       <c r="I8">
-        <v>18.36563320407085</v>
+        <v>25.47870320580893</v>
       </c>
       <c r="J8">
-        <v>5.654638101705086</v>
+        <v>9.89150870522837</v>
       </c>
       <c r="K8">
-        <v>18.83678398552601</v>
+        <v>15.39230045060593</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.05339586175391</v>
+        <v>17.83457989219173</v>
       </c>
       <c r="N8">
-        <v>12.35282466260784</v>
+        <v>18.69241952051017</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.636230836413319</v>
+        <v>4.524339190559011</v>
       </c>
       <c r="D9">
-        <v>5.385843815738819</v>
+        <v>8.124850429442056</v>
       </c>
       <c r="E9">
-        <v>8.041103654650888</v>
+        <v>12.7170205679736</v>
       </c>
       <c r="F9">
-        <v>28.4279421407288</v>
+        <v>36.33955187263147</v>
       </c>
       <c r="G9">
-        <v>36.72353065710259</v>
+        <v>41.14548397002953</v>
       </c>
       <c r="H9">
-        <v>11.2521016136206</v>
+        <v>17.12101826132984</v>
       </c>
       <c r="I9">
-        <v>19.52288555585463</v>
+        <v>25.46338111690952</v>
       </c>
       <c r="J9">
-        <v>5.579274211548397</v>
+        <v>9.835617082958883</v>
       </c>
       <c r="K9">
-        <v>21.8434587163454</v>
+        <v>16.30784433114446</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.90970884480145</v>
+        <v>18.18942735751998</v>
       </c>
       <c r="N9">
-        <v>11.83169268697748</v>
+        <v>18.54368677654554</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.890287007603758</v>
+        <v>4.617587249491145</v>
       </c>
       <c r="D10">
-        <v>5.611118096654756</v>
+        <v>8.146507080335541</v>
       </c>
       <c r="E10">
-        <v>8.228832550290827</v>
+        <v>12.70247353229891</v>
       </c>
       <c r="F10">
-        <v>29.84870558140538</v>
+        <v>36.3979542577019</v>
       </c>
       <c r="G10">
-        <v>39.06504347919451</v>
+        <v>41.37128906007108</v>
       </c>
       <c r="H10">
-        <v>11.49778750242618</v>
+        <v>17.07233749746541</v>
       </c>
       <c r="I10">
-        <v>20.4424306783596</v>
+        <v>25.48552633424875</v>
       </c>
       <c r="J10">
-        <v>5.53684720943626</v>
+        <v>9.799798186896187</v>
       </c>
       <c r="K10">
-        <v>23.83984127550563</v>
+        <v>16.96077947526372</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.39705225530078</v>
+        <v>18.46048051385055</v>
       </c>
       <c r="N10">
-        <v>11.46099943240284</v>
+        <v>18.44347930579238</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.001742488216151</v>
+        <v>4.658912216636433</v>
       </c>
       <c r="D11">
-        <v>5.712731828056807</v>
+        <v>8.157202359941234</v>
       </c>
       <c r="E11">
-        <v>8.318326984133144</v>
+        <v>12.69778085618261</v>
       </c>
       <c r="F11">
-        <v>30.51370474953529</v>
+        <v>36.4349985712805</v>
       </c>
       <c r="G11">
-        <v>40.14744377102242</v>
+        <v>41.48861957897451</v>
       </c>
       <c r="H11">
-        <v>11.62233489247411</v>
+        <v>17.05400448998229</v>
       </c>
       <c r="I11">
-        <v>20.87556277340579</v>
+        <v>25.50286567347451</v>
       </c>
       <c r="J11">
-        <v>5.520618966567879</v>
+        <v>9.784637869646408</v>
       </c>
       <c r="K11">
-        <v>24.70328463598757</v>
+        <v>17.25213288358097</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.06711837524125</v>
+        <v>18.58562892201046</v>
       </c>
       <c r="N11">
-        <v>11.29466579947761</v>
+        <v>18.39984154399553</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.04334461819851</v>
+        <v>4.67439712076397</v>
       </c>
       <c r="D12">
-        <v>5.751063102433621</v>
+        <v>8.1613718402659</v>
       </c>
       <c r="E12">
-        <v>8.352810366849171</v>
+        <v>12.69628016317885</v>
       </c>
       <c r="F12">
-        <v>30.76816841100361</v>
+        <v>36.45052935978433</v>
       </c>
       <c r="G12">
-        <v>40.55968936259065</v>
+        <v>41.53512935787221</v>
       </c>
       <c r="H12">
-        <v>11.67141448674289</v>
+        <v>17.04761214020127</v>
       </c>
       <c r="I12">
-        <v>21.04169890428012</v>
+        <v>25.51047555751503</v>
       </c>
       <c r="J12">
-        <v>5.51493953995106</v>
+        <v>9.779059796331731</v>
       </c>
       <c r="K12">
-        <v>25.02393991264855</v>
+        <v>17.36153970257039</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.31603600352759</v>
+        <v>18.63324974920228</v>
       </c>
       <c r="N12">
-        <v>11.23198146870484</v>
+        <v>18.38359562018288</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.034411855959636</v>
+        <v>4.671069564750969</v>
       </c>
       <c r="D13">
-        <v>5.742814677846011</v>
+        <v>8.160468588282805</v>
       </c>
       <c r="E13">
-        <v>8.345357257038462</v>
+        <v>12.69659108311462</v>
       </c>
       <c r="F13">
-        <v>30.71324801429013</v>
+        <v>36.44711776023797</v>
       </c>
       <c r="G13">
-        <v>40.47080095133484</v>
+        <v>41.52502055733569</v>
       </c>
       <c r="H13">
-        <v>11.66075785871106</v>
+        <v>17.04896436061311</v>
       </c>
       <c r="I13">
-        <v>21.00582437570681</v>
+        <v>25.50879023274165</v>
       </c>
       <c r="J13">
-        <v>5.516141582065184</v>
+        <v>9.78025389698659</v>
       </c>
       <c r="K13">
-        <v>24.95515981329586</v>
+        <v>17.33801962564559</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.26264000504135</v>
+        <v>18.62298409635648</v>
       </c>
       <c r="N13">
-        <v>11.24546864917633</v>
+        <v>18.38708209267397</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.005177274498938</v>
+        <v>4.660189492162214</v>
       </c>
       <c r="D14">
-        <v>5.715888445408075</v>
+        <v>8.157543003570533</v>
       </c>
       <c r="E14">
-        <v>8.321152021298548</v>
+        <v>12.69765185834081</v>
       </c>
       <c r="F14">
-        <v>30.5345868294728</v>
+        <v>36.43624620491225</v>
       </c>
       <c r="G14">
-        <v>40.18131253138007</v>
+        <v>41.492404433605</v>
       </c>
       <c r="H14">
-        <v>11.62633385224214</v>
+        <v>17.05346755578935</v>
       </c>
       <c r="I14">
-        <v>20.88918846858849</v>
+        <v>25.50347083175871</v>
       </c>
       <c r="J14">
-        <v>5.520142235171986</v>
+        <v>9.784175696605153</v>
       </c>
       <c r="K14">
-        <v>24.72979093191223</v>
+        <v>17.26115291793604</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.08769304661282</v>
+        <v>18.58954231355838</v>
       </c>
       <c r="N14">
-        <v>11.28950281772764</v>
+        <v>18.39849940256308</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.987191342213685</v>
+        <v>4.65350358818233</v>
       </c>
       <c r="D15">
-        <v>5.699375489601846</v>
+        <v>8.155766491617202</v>
       </c>
       <c r="E15">
-        <v>8.306403103383285</v>
+        <v>12.69833758373981</v>
       </c>
       <c r="F15">
-        <v>30.42549496681337</v>
+        <v>36.42978264972352</v>
       </c>
       <c r="G15">
-        <v>40.00429798824747</v>
+        <v>41.47269618413774</v>
       </c>
       <c r="H15">
-        <v>11.60550000315031</v>
+        <v>17.05629756449085</v>
       </c>
       <c r="I15">
-        <v>20.81802130163594</v>
+        <v>25.50034844078059</v>
       </c>
       <c r="J15">
-        <v>5.522654167957702</v>
+        <v>9.786599107707968</v>
       </c>
       <c r="K15">
-        <v>24.59092763619507</v>
+        <v>17.21394668315859</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.97990797331571</v>
+        <v>18.56908713226288</v>
       </c>
       <c r="N15">
-        <v>11.31651359473649</v>
+        <v>18.40552909938753</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.882919226789564</v>
+        <v>4.614863976694927</v>
       </c>
       <c r="D16">
-        <v>5.604457932334109</v>
+        <v>8.145824933295764</v>
       </c>
       <c r="E16">
-        <v>8.223066686434237</v>
+        <v>12.70281890428081</v>
       </c>
       <c r="F16">
-        <v>29.80561805075459</v>
+        <v>36.39574387221923</v>
       </c>
       <c r="G16">
-        <v>38.99464181364064</v>
+        <v>41.36391347110471</v>
       </c>
       <c r="H16">
-        <v>11.48991195558385</v>
+        <v>17.07361246822278</v>
       </c>
       <c r="I16">
-        <v>20.41442137943788</v>
+        <v>25.48453931272721</v>
       </c>
       <c r="J16">
-        <v>5.537971596462119</v>
+        <v>9.800811745128556</v>
       </c>
       <c r="K16">
-        <v>23.78252330643141</v>
+        <v>16.94161540678049</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.35258176768147</v>
+        <v>18.45233587007007</v>
       </c>
       <c r="N16">
-        <v>11.47191359164612</v>
+        <v>18.44637021036643</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.817888067912586</v>
+        <v>4.59087480310801</v>
       </c>
       <c r="D17">
-        <v>5.545989983798055</v>
+        <v>8.139940844381412</v>
       </c>
       <c r="E17">
-        <v>8.172994664580065</v>
+        <v>12.70606074005911</v>
       </c>
       <c r="F17">
-        <v>29.43009134771617</v>
+        <v>36.37754349168588</v>
       </c>
       <c r="G17">
-        <v>38.37956553995879</v>
+        <v>41.30090674013906</v>
       </c>
       <c r="H17">
-        <v>11.42233235171967</v>
+        <v>17.08521229388825</v>
       </c>
       <c r="I17">
-        <v>20.17060988589218</v>
+        <v>25.47670145547005</v>
       </c>
       <c r="J17">
-        <v>5.548171704456263</v>
+        <v>9.809820978420895</v>
       </c>
       <c r="K17">
-        <v>23.27522150329232</v>
+        <v>16.77301792682126</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.95904501377641</v>
+        <v>18.38116013740328</v>
       </c>
       <c r="N17">
-        <v>11.56781520900142</v>
+        <v>18.47192272149574</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.780096946510008</v>
+        <v>4.576974268519213</v>
       </c>
       <c r="D18">
-        <v>5.512280567049854</v>
+        <v>8.136635990458466</v>
       </c>
       <c r="E18">
-        <v>8.14457973814692</v>
+        <v>12.70810656673999</v>
       </c>
       <c r="F18">
-        <v>29.21585865459313</v>
+        <v>36.3680615634414</v>
       </c>
       <c r="G18">
-        <v>38.02741561320984</v>
+        <v>41.26604371590712</v>
       </c>
       <c r="H18">
-        <v>11.384661038425</v>
+        <v>17.0922429239606</v>
       </c>
       <c r="I18">
-        <v>20.03177170346741</v>
+        <v>25.47287729857053</v>
       </c>
       <c r="J18">
-        <v>5.554326133816087</v>
+        <v>9.815109591131556</v>
       </c>
       <c r="K18">
-        <v>22.97921801850271</v>
+        <v>16.67551729058484</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.72946827136241</v>
+        <v>18.3403975375408</v>
       </c>
       <c r="N18">
-        <v>11.62319314553146</v>
+        <v>18.48680319510533</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.767235479887451</v>
+        <v>4.572250372205943</v>
       </c>
       <c r="D19">
-        <v>5.500854128303886</v>
+        <v>8.135530737401938</v>
       </c>
       <c r="E19">
-        <v>8.135024952944317</v>
+        <v>12.70883038418866</v>
       </c>
       <c r="F19">
-        <v>29.14362719611684</v>
+        <v>36.36502065206404</v>
       </c>
       <c r="G19">
-        <v>37.90846731462737</v>
+        <v>41.25447675551261</v>
       </c>
       <c r="H19">
-        <v>11.37210966679076</v>
+        <v>17.09468492766408</v>
       </c>
       <c r="I19">
-        <v>19.98500381079521</v>
+        <v>25.47169998764495</v>
       </c>
       <c r="J19">
-        <v>5.556458609826233</v>
+        <v>9.816918564646135</v>
       </c>
       <c r="K19">
-        <v>22.87826856807187</v>
+        <v>16.6424179950175</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.65118085176612</v>
+        <v>18.3266272920595</v>
       </c>
       <c r="N19">
-        <v>11.64198141297609</v>
+        <v>18.49187299574509</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.824850885853736</v>
+        <v>4.593439158917556</v>
       </c>
       <c r="D20">
-        <v>5.552222476538258</v>
+        <v>8.140558999298731</v>
       </c>
       <c r="E20">
-        <v>8.178285020328484</v>
+        <v>12.70569688984824</v>
       </c>
       <c r="F20">
-        <v>29.4698850114913</v>
+        <v>36.37937888033272</v>
       </c>
       <c r="G20">
-        <v>38.44487421694515</v>
+        <v>41.30747156730173</v>
       </c>
       <c r="H20">
-        <v>11.42940168961231</v>
+        <v>17.0839403333069</v>
       </c>
       <c r="I20">
-        <v>20.19641971993713</v>
+        <v>25.47746502340017</v>
       </c>
       <c r="J20">
-        <v>5.547055951911679</v>
+        <v>9.808850884721902</v>
       </c>
       <c r="K20">
-        <v>23.32966024296582</v>
+        <v>16.79102084627252</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.00127075536934</v>
+        <v>18.38871897730308</v>
       </c>
       <c r="N20">
-        <v>11.55758396833244</v>
+        <v>18.46918364659087</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.013780640451095</v>
+        <v>4.663389734714441</v>
       </c>
       <c r="D21">
-        <v>5.723801508372501</v>
+        <v>8.158399093449303</v>
       </c>
       <c r="E21">
-        <v>8.328245527277796</v>
+        <v>12.69733278779014</v>
       </c>
       <c r="F21">
-        <v>30.58699245762469</v>
+        <v>36.43939869309188</v>
       </c>
       <c r="G21">
-        <v>40.26627875861865</v>
+        <v>41.50192834212284</v>
       </c>
       <c r="H21">
-        <v>11.63639239385132</v>
+        <v>17.05212991893568</v>
       </c>
       <c r="I21">
-        <v>20.92338981287088</v>
+        <v>25.50500495130776</v>
       </c>
       <c r="J21">
-        <v>5.518954301271854</v>
+        <v>9.783019352269825</v>
       </c>
       <c r="K21">
-        <v>24.79615755528322</v>
+        <v>17.28375637832999</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.13920928121213</v>
+        <v>18.59935902153211</v>
       </c>
       <c r="N21">
-        <v>11.27656092576287</v>
+        <v>18.3951383065163</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.133735422435339</v>
+        <v>4.708147887758302</v>
       </c>
       <c r="D22">
-        <v>5.835069389885135</v>
+        <v>8.170753704904973</v>
       </c>
       <c r="E22">
-        <v>8.429717472992483</v>
+        <v>12.6934767025855</v>
       </c>
       <c r="F22">
-        <v>31.3324891459503</v>
+        <v>36.48738233692319</v>
       </c>
       <c r="G22">
-        <v>41.47044125017216</v>
+        <v>41.64112374811181</v>
       </c>
       <c r="H22">
-        <v>11.78287791975011</v>
+        <v>17.03454629207201</v>
       </c>
       <c r="I22">
-        <v>21.4108583061392</v>
+        <v>25.5290870943465</v>
       </c>
       <c r="J22">
-        <v>5.503316247084009</v>
+        <v>9.767085824909241</v>
       </c>
       <c r="K22">
-        <v>25.71786810799891</v>
+        <v>17.60036735539369</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.85486122031355</v>
+        <v>18.73834761204813</v>
       </c>
       <c r="N22">
-        <v>11.09464670024515</v>
+        <v>18.348369599356</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.070038611315689</v>
+        <v>4.68434945271817</v>
       </c>
       <c r="D23">
-        <v>5.775769947316832</v>
+        <v>8.164096862591459</v>
       </c>
       <c r="E23">
-        <v>8.375241141782023</v>
+        <v>12.69538759745207</v>
       </c>
       <c r="F23">
-        <v>30.93320242071997</v>
+        <v>36.46097291773431</v>
       </c>
       <c r="G23">
-        <v>40.82651953849467</v>
+        <v>41.56573297536287</v>
       </c>
       <c r="H23">
-        <v>11.70364489675601</v>
+        <v>17.04363707732452</v>
       </c>
       <c r="I23">
-        <v>21.14955795966002</v>
+        <v>25.51567795755878</v>
       </c>
       <c r="J23">
-        <v>5.51140447316913</v>
+        <v>9.775503104515506</v>
       </c>
       <c r="K23">
-        <v>25.22925333307597</v>
+        <v>17.43191526916332</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.47543829545475</v>
+        <v>18.66405747350718</v>
       </c>
       <c r="N23">
-        <v>11.1915868559447</v>
+        <v>18.37318272951733</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.82170425281014</v>
+        <v>4.592280152160013</v>
       </c>
       <c r="D24">
-        <v>5.54940506195505</v>
+        <v>8.140279288412692</v>
       </c>
       <c r="E24">
-        <v>8.175892091691393</v>
+        <v>12.70586081942377</v>
       </c>
       <c r="F24">
-        <v>29.45188911373697</v>
+        <v>36.37854604279703</v>
       </c>
       <c r="G24">
-        <v>38.4153435895743</v>
+        <v>41.30449936971654</v>
       </c>
       <c r="H24">
-        <v>11.42620196898359</v>
+        <v>17.08451425997329</v>
       </c>
       <c r="I24">
-        <v>20.18474694293689</v>
+        <v>25.47711769003541</v>
       </c>
       <c r="J24">
-        <v>5.547559481368439</v>
+        <v>9.809289124268023</v>
       </c>
       <c r="K24">
-        <v>23.30506204357072</v>
+        <v>16.78288349884758</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.98219086829684</v>
+        <v>18.38530113315602</v>
       </c>
       <c r="N24">
-        <v>11.56220875382672</v>
+        <v>18.47042139039573</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.539119301837487</v>
+        <v>4.489075074261406</v>
       </c>
       <c r="D25">
-        <v>5.302290516568977</v>
+        <v>8.117635097336473</v>
       </c>
       <c r="E25">
-        <v>7.975572620059523</v>
+        <v>12.72408693605649</v>
       </c>
       <c r="F25">
-        <v>27.92170134434145</v>
+        <v>36.32734763629785</v>
       </c>
       <c r="G25">
-        <v>35.8775823615025</v>
+        <v>41.07540345267047</v>
       </c>
       <c r="H25">
-        <v>11.17243411714781</v>
+        <v>17.14231271425812</v>
       </c>
       <c r="I25">
-        <v>19.19754452887931</v>
+        <v>25.46166733753331</v>
       </c>
       <c r="J25">
-        <v>5.59747258904582</v>
+        <v>9.849814783288521</v>
       </c>
       <c r="K25">
-        <v>21.06786648071593</v>
+        <v>16.06312437495759</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.42190945440655</v>
+        <v>18.09147800995509</v>
       </c>
       <c r="N25">
-        <v>11.97042099178575</v>
+        <v>18.5823241666059</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.409979911005498</v>
+        <v>4.318969819273859</v>
       </c>
       <c r="D2">
-        <v>8.103642006615821</v>
+        <v>5.118794240917951</v>
       </c>
       <c r="E2">
-        <v>12.743477862311</v>
+        <v>7.840525750403043</v>
       </c>
       <c r="F2">
-        <v>36.3220944133288</v>
+        <v>26.85540972890922</v>
       </c>
       <c r="G2">
-        <v>40.95254160811817</v>
+        <v>34.06964318852797</v>
       </c>
       <c r="H2">
-        <v>17.19658491585501</v>
+        <v>11.02168383906588</v>
       </c>
       <c r="I2">
-        <v>25.47273313125103</v>
+        <v>18.51740392272792</v>
       </c>
       <c r="J2">
-        <v>9.88317813655183</v>
+        <v>5.642816235069484</v>
       </c>
       <c r="K2">
-        <v>15.52051984591185</v>
+        <v>19.27728451321379</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.88226560424409</v>
+        <v>15.31910076655857</v>
       </c>
       <c r="N2">
-        <v>18.67081359058918</v>
+        <v>12.27929087750495</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.354570677511079</v>
+        <v>4.162641821153332</v>
       </c>
       <c r="D3">
-        <v>8.09585827525177</v>
+        <v>4.994061903543547</v>
       </c>
       <c r="E3">
-        <v>12.76034808263853</v>
+        <v>7.756659261147883</v>
       </c>
       <c r="F3">
-        <v>36.33872941042381</v>
+        <v>26.17182605585245</v>
       </c>
       <c r="G3">
-        <v>40.89799378580049</v>
+        <v>32.88661567127126</v>
       </c>
       <c r="H3">
-        <v>17.24063348324793</v>
+        <v>10.94042795276431</v>
       </c>
       <c r="I3">
-        <v>25.49418085073745</v>
+        <v>18.08606366002277</v>
       </c>
       <c r="J3">
-        <v>9.907994448905029</v>
+        <v>5.678550735937385</v>
       </c>
       <c r="K3">
-        <v>15.14732228422118</v>
+        <v>17.97236671196497</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.74553255921584</v>
+        <v>14.53922422636975</v>
       </c>
       <c r="N3">
-        <v>18.73461801456704</v>
+        <v>12.49430041614203</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.319705230154812</v>
+        <v>4.063313673218446</v>
       </c>
       <c r="D4">
-        <v>8.091926194027732</v>
+        <v>4.917512022361895</v>
       </c>
       <c r="E4">
-        <v>12.77254663999969</v>
+        <v>7.708898730356826</v>
       </c>
       <c r="F4">
-        <v>36.35887737466083</v>
+        <v>25.77182793428233</v>
       </c>
       <c r="G4">
-        <v>40.87867573867039</v>
+        <v>32.18277145569445</v>
       </c>
       <c r="H4">
-        <v>17.27125000468269</v>
+        <v>10.90028684806831</v>
       </c>
       <c r="I4">
-        <v>25.51420518833381</v>
+        <v>17.83593674377195</v>
       </c>
       <c r="J4">
-        <v>9.924322079756019</v>
+        <v>5.702853253406836</v>
       </c>
       <c r="K4">
-        <v>14.9163632322336</v>
+        <v>17.12542671847399</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.66426631682183</v>
+        <v>14.04557493695228</v>
       </c>
       <c r="N4">
-        <v>18.77569587930289</v>
+        <v>12.62928146434463</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.305292462703618</v>
+        <v>4.022027349975359</v>
       </c>
       <c r="D5">
-        <v>8.090538212922299</v>
+        <v>4.886362183263138</v>
       </c>
       <c r="E5">
-        <v>12.77798051683051</v>
+        <v>7.690367842911014</v>
       </c>
       <c r="F5">
-        <v>36.36958085464674</v>
+        <v>25.61384973709809</v>
       </c>
       <c r="G5">
-        <v>40.87436640163381</v>
+        <v>31.90188812192517</v>
       </c>
       <c r="H5">
-        <v>17.28462213632875</v>
+        <v>10.88629444077275</v>
       </c>
       <c r="I5">
-        <v>25.52408489296537</v>
+        <v>17.73772051918552</v>
       </c>
       <c r="J5">
-        <v>9.931250221743388</v>
+        <v>5.713335578500829</v>
       </c>
       <c r="K5">
-        <v>14.82192997036291</v>
+        <v>16.76871040516066</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.63185479672971</v>
+        <v>13.84091595244382</v>
       </c>
       <c r="N5">
-        <v>18.79291506630276</v>
+        <v>12.68505520638242</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.30288708333496</v>
+        <v>4.015123900662657</v>
       </c>
       <c r="D6">
-        <v>8.090320725199726</v>
+        <v>4.881193559896014</v>
       </c>
       <c r="E6">
-        <v>12.77891076668978</v>
+        <v>7.687346855948478</v>
       </c>
       <c r="F6">
-        <v>36.37150855762013</v>
+        <v>25.58792263616017</v>
       </c>
       <c r="G6">
-        <v>40.87386591366981</v>
+        <v>31.8556142177372</v>
       </c>
       <c r="H6">
-        <v>17.28689659758314</v>
+        <v>10.88411129369653</v>
       </c>
       <c r="I6">
-        <v>25.52582913109169</v>
+        <v>17.72163612915515</v>
       </c>
       <c r="J6">
-        <v>9.932417223366672</v>
+        <v>5.7151107027964</v>
       </c>
       <c r="K6">
-        <v>14.80623455752213</v>
+        <v>16.70877600934793</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.62651630396103</v>
+        <v>13.80672906847625</v>
       </c>
       <c r="N6">
-        <v>18.79580330943132</v>
+        <v>12.6943634165927</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.319511673909799</v>
+        <v>4.062760104018272</v>
       </c>
       <c r="D7">
-        <v>8.091906605506979</v>
+        <v>4.917091694738887</v>
       </c>
       <c r="E7">
-        <v>12.77261804889903</v>
+        <v>7.708645053306927</v>
       </c>
       <c r="F7">
-        <v>36.3590116391263</v>
+        <v>25.76967696695454</v>
       </c>
       <c r="G7">
-        <v>40.87860320016139</v>
+        <v>32.1789589615912</v>
       </c>
       <c r="H7">
-        <v>17.2714267224847</v>
+        <v>10.90008868040516</v>
       </c>
       <c r="I7">
-        <v>25.51433147306949</v>
+        <v>17.83459712653485</v>
       </c>
       <c r="J7">
-        <v>9.924414403223288</v>
+        <v>5.702992297006885</v>
       </c>
       <c r="K7">
-        <v>14.9150907600936</v>
+        <v>17.12066292125794</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.66382631112056</v>
+        <v>14.04282864238461</v>
       </c>
       <c r="N7">
-        <v>18.77592615942275</v>
+        <v>12.63003051016636</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.391054349618026</v>
+        <v>4.265778927937659</v>
       </c>
       <c r="D8">
-        <v>8.100783178167021</v>
+        <v>5.075799913610386</v>
       </c>
       <c r="E8">
-        <v>12.7489128867226</v>
+        <v>7.810829819917872</v>
       </c>
       <c r="F8">
-        <v>36.32576580430397</v>
+        <v>26.61565822493624</v>
       </c>
       <c r="G8">
-        <v>40.93079194877622</v>
+        <v>33.65721917602488</v>
       </c>
       <c r="H8">
-        <v>17.21103051713067</v>
+        <v>10.99159210355483</v>
       </c>
       <c r="I8">
-        <v>25.47870320580893</v>
+        <v>18.36563320407093</v>
       </c>
       <c r="J8">
-        <v>9.89150870522837</v>
+        <v>5.65463810170505</v>
       </c>
       <c r="K8">
-        <v>15.39230045060593</v>
+        <v>18.83678398552598</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.83457989219173</v>
+        <v>15.05339586175389</v>
       </c>
       <c r="N8">
-        <v>18.69241952051017</v>
+        <v>12.35282466260795</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.524339190559011</v>
+        <v>4.636230836413337</v>
       </c>
       <c r="D9">
-        <v>8.124850429442056</v>
+        <v>5.385843815738769</v>
       </c>
       <c r="E9">
-        <v>12.7170205679736</v>
+        <v>8.041103654650851</v>
       </c>
       <c r="F9">
-        <v>36.33955187263147</v>
+        <v>28.42794214072869</v>
       </c>
       <c r="G9">
-        <v>41.14548397002953</v>
+        <v>36.7235306571024</v>
       </c>
       <c r="H9">
-        <v>17.12101826132984</v>
+        <v>11.25210161362054</v>
       </c>
       <c r="I9">
-        <v>25.46338111690952</v>
+        <v>19.52288555585454</v>
       </c>
       <c r="J9">
-        <v>9.835617082958883</v>
+        <v>5.579274211548379</v>
       </c>
       <c r="K9">
-        <v>16.30784433114446</v>
+        <v>21.84345871634542</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.18942735751998</v>
+        <v>16.90970884480143</v>
       </c>
       <c r="N9">
-        <v>18.54368677654554</v>
+        <v>11.83169268697737</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.617587249491145</v>
+        <v>4.890287007603549</v>
       </c>
       <c r="D10">
-        <v>8.146507080335541</v>
+        <v>5.611118096654763</v>
       </c>
       <c r="E10">
-        <v>12.70247353229891</v>
+        <v>8.228832550290827</v>
       </c>
       <c r="F10">
-        <v>36.3979542577019</v>
+        <v>29.84870558140544</v>
       </c>
       <c r="G10">
-        <v>41.37128906007108</v>
+        <v>39.06504347919458</v>
       </c>
       <c r="H10">
-        <v>17.07233749746541</v>
+        <v>11.49778750242621</v>
       </c>
       <c r="I10">
-        <v>25.48552633424875</v>
+        <v>20.44243067835964</v>
       </c>
       <c r="J10">
-        <v>9.799798186896187</v>
+        <v>5.536847209436287</v>
       </c>
       <c r="K10">
-        <v>16.96077947526372</v>
+        <v>23.83984127550561</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.46048051385055</v>
+        <v>18.39705225530077</v>
       </c>
       <c r="N10">
-        <v>18.44347930579238</v>
+        <v>11.46099943240284</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.658912216636433</v>
+        <v>5.001742488216232</v>
       </c>
       <c r="D11">
-        <v>8.157202359941234</v>
+        <v>5.712731828056801</v>
       </c>
       <c r="E11">
-        <v>12.69778085618261</v>
+        <v>8.318326984133135</v>
       </c>
       <c r="F11">
-        <v>36.4349985712805</v>
+        <v>30.51370474953525</v>
       </c>
       <c r="G11">
-        <v>41.48861957897451</v>
+        <v>40.14744377102235</v>
       </c>
       <c r="H11">
-        <v>17.05400448998229</v>
+        <v>11.6223348924741</v>
       </c>
       <c r="I11">
-        <v>25.50286567347451</v>
+        <v>20.87556277340574</v>
       </c>
       <c r="J11">
-        <v>9.784637869646408</v>
+        <v>5.520618966567873</v>
       </c>
       <c r="K11">
-        <v>17.25213288358097</v>
+        <v>24.7032846359876</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.58562892201046</v>
+        <v>19.06711837524126</v>
       </c>
       <c r="N11">
-        <v>18.39984154399553</v>
+        <v>11.29466579947765</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.67439712076397</v>
+        <v>5.043344618198518</v>
       </c>
       <c r="D12">
-        <v>8.1613718402659</v>
+        <v>5.751063102433614</v>
       </c>
       <c r="E12">
-        <v>12.69628016317885</v>
+        <v>8.352810366849175</v>
       </c>
       <c r="F12">
-        <v>36.45052935978433</v>
+        <v>30.76816841100362</v>
       </c>
       <c r="G12">
-        <v>41.53512935787221</v>
+        <v>40.55968936259066</v>
       </c>
       <c r="H12">
-        <v>17.04761214020127</v>
+        <v>11.67141448674289</v>
       </c>
       <c r="I12">
-        <v>25.51047555751503</v>
+        <v>21.04169890428013</v>
       </c>
       <c r="J12">
-        <v>9.779059796331731</v>
+        <v>5.51493953995106</v>
       </c>
       <c r="K12">
-        <v>17.36153970257039</v>
+        <v>25.02393991264856</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.63324974920228</v>
+        <v>19.3160360035276</v>
       </c>
       <c r="N12">
-        <v>18.38359562018288</v>
+        <v>11.23198146870484</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.671069564750969</v>
+        <v>5.034411855959554</v>
       </c>
       <c r="D13">
-        <v>8.160468588282805</v>
+        <v>5.74281467784604</v>
       </c>
       <c r="E13">
-        <v>12.69659108311462</v>
+        <v>8.345357257038497</v>
       </c>
       <c r="F13">
-        <v>36.44711776023797</v>
+        <v>30.71324801429011</v>
       </c>
       <c r="G13">
-        <v>41.52502055733569</v>
+        <v>40.47080095133484</v>
       </c>
       <c r="H13">
-        <v>17.04896436061311</v>
+        <v>11.66075785871106</v>
       </c>
       <c r="I13">
-        <v>25.50879023274165</v>
+        <v>21.00582437570683</v>
       </c>
       <c r="J13">
-        <v>9.78025389698659</v>
+        <v>5.51614158206521</v>
       </c>
       <c r="K13">
-        <v>17.33801962564559</v>
+        <v>24.95515981329586</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.62298409635648</v>
+        <v>19.26264000504132</v>
       </c>
       <c r="N13">
-        <v>18.38708209267397</v>
+        <v>11.24546864917633</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.660189492162214</v>
+        <v>5.005177274498839</v>
       </c>
       <c r="D14">
-        <v>8.157543003570533</v>
+        <v>5.71588844540812</v>
       </c>
       <c r="E14">
-        <v>12.69765185834081</v>
+        <v>8.321152021298593</v>
       </c>
       <c r="F14">
-        <v>36.43624620491225</v>
+        <v>30.53458682947269</v>
       </c>
       <c r="G14">
-        <v>41.492404433605</v>
+        <v>40.18131253138004</v>
       </c>
       <c r="H14">
-        <v>17.05346755578935</v>
+        <v>11.62633385224207</v>
       </c>
       <c r="I14">
-        <v>25.50347083175871</v>
+        <v>20.88918846858843</v>
       </c>
       <c r="J14">
-        <v>9.784175696605153</v>
+        <v>5.520142235172016</v>
       </c>
       <c r="K14">
-        <v>17.26115291793604</v>
+        <v>24.72979093191231</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.58954231355838</v>
+        <v>19.08769304661285</v>
       </c>
       <c r="N14">
-        <v>18.39849940256308</v>
+        <v>11.28950281772754</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.65350358818233</v>
+        <v>4.987191342213685</v>
       </c>
       <c r="D15">
-        <v>8.155766491617202</v>
+        <v>5.699375489601861</v>
       </c>
       <c r="E15">
-        <v>12.69833758373981</v>
+        <v>8.306403103383381</v>
       </c>
       <c r="F15">
-        <v>36.42978264972352</v>
+        <v>30.42549496681343</v>
       </c>
       <c r="G15">
-        <v>41.47269618413774</v>
+        <v>40.00429798824749</v>
       </c>
       <c r="H15">
-        <v>17.05629756449085</v>
+        <v>11.60550000315038</v>
       </c>
       <c r="I15">
-        <v>25.50034844078059</v>
+        <v>20.81802130163599</v>
       </c>
       <c r="J15">
-        <v>9.786599107707968</v>
+        <v>5.522654167957813</v>
       </c>
       <c r="K15">
-        <v>17.21394668315859</v>
+        <v>24.59092763619502</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.56908713226288</v>
+        <v>18.97990797331567</v>
       </c>
       <c r="N15">
-        <v>18.40552909938753</v>
+        <v>11.31651359473659</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.614863976694927</v>
+        <v>4.882919226789668</v>
       </c>
       <c r="D16">
-        <v>8.145824933295764</v>
+        <v>5.604457932334173</v>
       </c>
       <c r="E16">
-        <v>12.70281890428081</v>
+        <v>8.223066686434221</v>
       </c>
       <c r="F16">
-        <v>36.39574387221923</v>
+        <v>29.80561805075464</v>
       </c>
       <c r="G16">
-        <v>41.36391347110471</v>
+        <v>38.99464181364068</v>
       </c>
       <c r="H16">
-        <v>17.07361246822278</v>
+        <v>11.4899119555839</v>
       </c>
       <c r="I16">
-        <v>25.48453931272721</v>
+        <v>20.4144213794379</v>
       </c>
       <c r="J16">
-        <v>9.800811745128556</v>
+        <v>5.537971596462064</v>
       </c>
       <c r="K16">
-        <v>16.94161540678049</v>
+        <v>23.78252330643137</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.45233587007007</v>
+        <v>18.35258176768144</v>
       </c>
       <c r="N16">
-        <v>18.44637021036643</v>
+        <v>11.47191359164616</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.59087480310801</v>
+        <v>4.817888067912508</v>
       </c>
       <c r="D17">
-        <v>8.139940844381412</v>
+        <v>5.545989983797909</v>
       </c>
       <c r="E17">
-        <v>12.70606074005911</v>
+        <v>8.172994664580081</v>
       </c>
       <c r="F17">
-        <v>36.37754349168588</v>
+        <v>29.43009134771611</v>
       </c>
       <c r="G17">
-        <v>41.30090674013906</v>
+        <v>38.37956553995877</v>
       </c>
       <c r="H17">
-        <v>17.08521229388825</v>
+        <v>11.42233235171966</v>
       </c>
       <c r="I17">
-        <v>25.47670145547005</v>
+        <v>20.17060988589216</v>
       </c>
       <c r="J17">
-        <v>9.809820978420895</v>
+        <v>5.548171704456347</v>
       </c>
       <c r="K17">
-        <v>16.77301792682126</v>
+        <v>23.27522150329236</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.38116013740328</v>
+        <v>17.95904501377644</v>
       </c>
       <c r="N17">
-        <v>18.47192272149574</v>
+        <v>11.56781520900132</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.576974268519213</v>
+        <v>4.780096946510124</v>
       </c>
       <c r="D18">
-        <v>8.136635990458466</v>
+        <v>5.512280567049819</v>
       </c>
       <c r="E18">
-        <v>12.70810656673999</v>
+        <v>8.144579738146916</v>
       </c>
       <c r="F18">
-        <v>36.3680615634414</v>
+        <v>29.21585865459301</v>
       </c>
       <c r="G18">
-        <v>41.26604371590712</v>
+        <v>38.0274156132098</v>
       </c>
       <c r="H18">
-        <v>17.0922429239606</v>
+        <v>11.38466103842485</v>
       </c>
       <c r="I18">
-        <v>25.47287729857053</v>
+        <v>20.03177170346732</v>
       </c>
       <c r="J18">
-        <v>9.815109591131556</v>
+        <v>5.554326133816037</v>
       </c>
       <c r="K18">
-        <v>16.67551729058484</v>
+        <v>22.97921801850276</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.3403975375408</v>
+        <v>17.72946827136245</v>
       </c>
       <c r="N18">
-        <v>18.48680319510533</v>
+        <v>11.62319314553136</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.572250372205943</v>
+        <v>4.76723547988738</v>
       </c>
       <c r="D19">
-        <v>8.135530737401938</v>
+        <v>5.5008541283038</v>
       </c>
       <c r="E19">
-        <v>12.70883038418866</v>
+        <v>8.135024952944267</v>
       </c>
       <c r="F19">
-        <v>36.36502065206404</v>
+        <v>29.14362719611684</v>
       </c>
       <c r="G19">
-        <v>41.25447675551261</v>
+        <v>37.90846731462737</v>
       </c>
       <c r="H19">
-        <v>17.09468492766408</v>
+        <v>11.37210966679077</v>
       </c>
       <c r="I19">
-        <v>25.47169998764495</v>
+        <v>19.98500381079526</v>
       </c>
       <c r="J19">
-        <v>9.816918564646135</v>
+        <v>5.556458609826178</v>
       </c>
       <c r="K19">
-        <v>16.6424179950175</v>
+        <v>22.87826856807179</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.3266272920595</v>
+        <v>17.65118085176609</v>
       </c>
       <c r="N19">
-        <v>18.49187299574509</v>
+        <v>11.64198141297616</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.593439158917556</v>
+        <v>4.824850885854142</v>
       </c>
       <c r="D20">
-        <v>8.140558999298731</v>
+        <v>5.552222476538167</v>
       </c>
       <c r="E20">
-        <v>12.70569688984824</v>
+        <v>8.178285020328413</v>
       </c>
       <c r="F20">
-        <v>36.37937888033272</v>
+        <v>29.46988501149126</v>
       </c>
       <c r="G20">
-        <v>41.30747156730173</v>
+        <v>38.44487421694512</v>
       </c>
       <c r="H20">
-        <v>17.0839403333069</v>
+        <v>11.42940168961234</v>
       </c>
       <c r="I20">
-        <v>25.47746502340017</v>
+        <v>20.19641971993709</v>
       </c>
       <c r="J20">
-        <v>9.808850884721902</v>
+        <v>5.547055951911712</v>
       </c>
       <c r="K20">
-        <v>16.79102084627252</v>
+        <v>23.32966024296587</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.38871897730308</v>
+        <v>18.00127075536939</v>
       </c>
       <c r="N20">
-        <v>18.46918364659087</v>
+        <v>11.55758396833241</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.663389734714441</v>
+        <v>5.013780640450975</v>
       </c>
       <c r="D21">
-        <v>8.158399093449303</v>
+        <v>5.723801508372519</v>
       </c>
       <c r="E21">
-        <v>12.69733278779014</v>
+        <v>8.328245527277815</v>
       </c>
       <c r="F21">
-        <v>36.43939869309188</v>
+        <v>30.58699245762469</v>
       </c>
       <c r="G21">
-        <v>41.50192834212284</v>
+        <v>40.26627875861864</v>
       </c>
       <c r="H21">
-        <v>17.05212991893568</v>
+        <v>11.63639239385132</v>
       </c>
       <c r="I21">
-        <v>25.50500495130776</v>
+        <v>20.92338981287087</v>
       </c>
       <c r="J21">
-        <v>9.783019352269825</v>
+        <v>5.518954301271847</v>
       </c>
       <c r="K21">
-        <v>17.28375637832999</v>
+        <v>24.79615755528326</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.59935902153211</v>
+        <v>19.13920928121212</v>
       </c>
       <c r="N21">
-        <v>18.3951383065163</v>
+        <v>11.27656092576283</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.708147887758302</v>
+        <v>5.133735422435438</v>
       </c>
       <c r="D22">
-        <v>8.170753704904973</v>
+        <v>5.83506938988515</v>
       </c>
       <c r="E22">
-        <v>12.6934767025855</v>
+        <v>8.429717472992422</v>
       </c>
       <c r="F22">
-        <v>36.48738233692319</v>
+        <v>31.33248914595025</v>
       </c>
       <c r="G22">
-        <v>41.64112374811181</v>
+        <v>41.47044125017212</v>
       </c>
       <c r="H22">
-        <v>17.03454629207201</v>
+        <v>11.78287791975003</v>
       </c>
       <c r="I22">
-        <v>25.5290870943465</v>
+        <v>21.41085830613916</v>
       </c>
       <c r="J22">
-        <v>9.767085824909241</v>
+        <v>5.503316247083963</v>
       </c>
       <c r="K22">
-        <v>17.60036735539369</v>
+        <v>25.71786810799893</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.73834761204813</v>
+        <v>19.8548612203136</v>
       </c>
       <c r="N22">
-        <v>18.348369599356</v>
+        <v>11.09464670024509</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.68434945271817</v>
+        <v>5.070038611315595</v>
       </c>
       <c r="D23">
-        <v>8.164096862591459</v>
+        <v>5.775769947316787</v>
       </c>
       <c r="E23">
-        <v>12.69538759745207</v>
+        <v>8.375241141782013</v>
       </c>
       <c r="F23">
-        <v>36.46097291773431</v>
+        <v>30.93320242071991</v>
       </c>
       <c r="G23">
-        <v>41.56573297536287</v>
+        <v>40.82651953849457</v>
       </c>
       <c r="H23">
-        <v>17.04363707732452</v>
+        <v>11.703644896756</v>
       </c>
       <c r="I23">
-        <v>25.51567795755878</v>
+        <v>21.14955795965997</v>
       </c>
       <c r="J23">
-        <v>9.775503104515506</v>
+        <v>5.511404473169129</v>
       </c>
       <c r="K23">
-        <v>17.43191526916332</v>
+        <v>25.229253333076</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.66405747350718</v>
+        <v>19.47543829545474</v>
       </c>
       <c r="N23">
-        <v>18.37318272951733</v>
+        <v>11.19158685594464</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.592280152160013</v>
+        <v>4.821704252810158</v>
       </c>
       <c r="D24">
-        <v>8.140279288412692</v>
+        <v>5.549405061955117</v>
       </c>
       <c r="E24">
-        <v>12.70586081942377</v>
+        <v>8.175892091691388</v>
       </c>
       <c r="F24">
-        <v>36.37854604279703</v>
+        <v>29.45188911373707</v>
       </c>
       <c r="G24">
-        <v>41.30449936971654</v>
+        <v>38.41534358957431</v>
       </c>
       <c r="H24">
-        <v>17.08451425997329</v>
+        <v>11.42620196898371</v>
       </c>
       <c r="I24">
-        <v>25.47711769003541</v>
+        <v>20.18474694293696</v>
       </c>
       <c r="J24">
-        <v>9.809289124268023</v>
+        <v>5.54755948136838</v>
       </c>
       <c r="K24">
-        <v>16.78288349884758</v>
+        <v>23.30506204357068</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.38530113315602</v>
+        <v>17.98219086829681</v>
       </c>
       <c r="N24">
-        <v>18.47042139039573</v>
+        <v>11.56220875382682</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.489075074261406</v>
+        <v>4.539119301837399</v>
       </c>
       <c r="D25">
-        <v>8.117635097336473</v>
+        <v>5.302290516568883</v>
       </c>
       <c r="E25">
-        <v>12.72408693605649</v>
+        <v>7.975572620059519</v>
       </c>
       <c r="F25">
-        <v>36.32734763629785</v>
+        <v>27.92170134434137</v>
       </c>
       <c r="G25">
-        <v>41.07540345267047</v>
+        <v>35.87758236150241</v>
       </c>
       <c r="H25">
-        <v>17.14231271425812</v>
+        <v>11.17243411714779</v>
       </c>
       <c r="I25">
-        <v>25.46166733753331</v>
+        <v>19.1975445288793</v>
       </c>
       <c r="J25">
-        <v>9.849814783288521</v>
+        <v>5.597472589045846</v>
       </c>
       <c r="K25">
-        <v>16.06312437495759</v>
+        <v>21.06786648071594</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.09147800995509</v>
+        <v>16.42190945440655</v>
       </c>
       <c r="N25">
-        <v>18.5823241666059</v>
+        <v>11.97042099178572</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,994 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>4.318969819273859</v>
+        <v>3.824489540852509</v>
       </c>
       <c r="D2">
-        <v>5.118794240917951</v>
+        <v>4.554366703928786</v>
       </c>
       <c r="E2">
-        <v>7.840525750403043</v>
+        <v>11.11098937968455</v>
       </c>
       <c r="F2">
-        <v>26.85540972890922</v>
+        <v>52.24032131867952</v>
       </c>
       <c r="G2">
-        <v>34.06964318852797</v>
+        <v>77.00571329478497</v>
       </c>
       <c r="H2">
-        <v>11.02168383906588</v>
+        <v>3.270907504593446</v>
       </c>
       <c r="I2">
-        <v>18.51740392272792</v>
+        <v>4.906224172470758</v>
       </c>
       <c r="J2">
-        <v>5.642816235069484</v>
+        <v>20.2331940844812</v>
       </c>
       <c r="K2">
-        <v>19.27728451321379</v>
+        <v>36.54613041167082</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>15.31910076655857</v>
+        <v>8.634322313226326</v>
       </c>
       <c r="N2">
-        <v>12.27929087750495</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>4.162641821153332</v>
+        <v>3.53234335357496</v>
       </c>
       <c r="D3">
-        <v>4.994061903543547</v>
+        <v>4.488316343830794</v>
       </c>
       <c r="E3">
-        <v>7.756659261147883</v>
+        <v>10.62345571708195</v>
       </c>
       <c r="F3">
-        <v>26.17182605585245</v>
+        <v>49.19104399068354</v>
       </c>
       <c r="G3">
-        <v>32.88661567127126</v>
+        <v>72.14742273790246</v>
       </c>
       <c r="H3">
-        <v>10.94042795276431</v>
+        <v>2.857616637352057</v>
       </c>
       <c r="I3">
-        <v>18.08606366002277</v>
+        <v>4.522768110351237</v>
       </c>
       <c r="J3">
-        <v>5.678550735937385</v>
+        <v>19.18537915977979</v>
       </c>
       <c r="K3">
-        <v>17.97236671196497</v>
+        <v>34.45626957139115</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>14.53922422636975</v>
+        <v>8.287629514263207</v>
       </c>
       <c r="N3">
-        <v>12.49430041614203</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>4.063313673218446</v>
+        <v>3.350830858341725</v>
       </c>
       <c r="D4">
-        <v>4.917512022361895</v>
+        <v>4.447432112657749</v>
       </c>
       <c r="E4">
-        <v>7.708898730356826</v>
+        <v>10.31472007107819</v>
       </c>
       <c r="F4">
-        <v>25.77182793428233</v>
+        <v>47.23253143862307</v>
       </c>
       <c r="G4">
-        <v>32.18277145569445</v>
+        <v>69.01117724519298</v>
       </c>
       <c r="H4">
-        <v>10.90028684806831</v>
+        <v>2.59693122306647</v>
       </c>
       <c r="I4">
-        <v>17.83593674377195</v>
+        <v>4.281317854485675</v>
       </c>
       <c r="J4">
-        <v>5.702853253406836</v>
+        <v>18.51662238130324</v>
       </c>
       <c r="K4">
-        <v>17.12542671847399</v>
+        <v>33.11252798541568</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>14.04557493695228</v>
+        <v>8.067755676317981</v>
       </c>
       <c r="N4">
-        <v>12.62928146434463</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>4.022027349975359</v>
+        <v>3.281902234382717</v>
       </c>
       <c r="D5">
-        <v>4.886362183263138</v>
+        <v>4.430823199298494</v>
       </c>
       <c r="E5">
-        <v>7.690367842911014</v>
+        <v>10.18712449386292</v>
       </c>
       <c r="F5">
-        <v>25.61384973709809</v>
+        <v>46.39334620124393</v>
       </c>
       <c r="G5">
-        <v>31.90188812192517</v>
+        <v>67.65993679438658</v>
       </c>
       <c r="H5">
-        <v>10.88629444077275</v>
+        <v>2.488000558398918</v>
       </c>
       <c r="I5">
-        <v>17.73772051918552</v>
+        <v>4.180442047752214</v>
       </c>
       <c r="J5">
-        <v>5.713335578500829</v>
+        <v>18.23002511818887</v>
       </c>
       <c r="K5">
-        <v>16.76871040516066</v>
+        <v>32.53062402763481</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>13.84091595244382</v>
+        <v>7.975589754511477</v>
       </c>
       <c r="N5">
-        <v>12.68505520638242</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>4.015123900662657</v>
+        <v>3.277375048283798</v>
       </c>
       <c r="D6">
-        <v>4.881193559896014</v>
+        <v>4.428259465617091</v>
       </c>
       <c r="E6">
-        <v>7.687346855948478</v>
+        <v>10.1664975809377</v>
       </c>
       <c r="F6">
-        <v>25.58792263616017</v>
+        <v>46.22859623985997</v>
       </c>
       <c r="G6">
-        <v>31.8556142177372</v>
+        <v>67.3906168468915</v>
       </c>
       <c r="H6">
-        <v>10.88411129369653</v>
+        <v>2.46872548349467</v>
       </c>
       <c r="I6">
-        <v>17.72163612915515</v>
+        <v>4.162628585110443</v>
       </c>
       <c r="J6">
-        <v>5.7151107027964</v>
+        <v>18.1724292088618</v>
       </c>
       <c r="K6">
-        <v>16.70877600934793</v>
+        <v>32.40944743772514</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>13.80672906847625</v>
+        <v>7.959177441181319</v>
       </c>
       <c r="N6">
-        <v>12.6943634165927</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>4.062760104018272</v>
+        <v>3.368239801673826</v>
       </c>
       <c r="D7">
-        <v>4.917091694738887</v>
+        <v>4.447717929619553</v>
       </c>
       <c r="E7">
-        <v>7.708645053306927</v>
+        <v>10.3148834402033</v>
       </c>
       <c r="F7">
-        <v>25.76967696695454</v>
+        <v>47.15664330619398</v>
       </c>
       <c r="G7">
-        <v>32.1789589615912</v>
+        <v>68.87907179712464</v>
       </c>
       <c r="H7">
-        <v>10.90008868040516</v>
+        <v>2.592541075175513</v>
       </c>
       <c r="I7">
-        <v>17.83459712653485</v>
+        <v>4.277075157066059</v>
       </c>
       <c r="J7">
-        <v>5.702992297006885</v>
+        <v>18.48687970353945</v>
       </c>
       <c r="K7">
-        <v>17.12066292125794</v>
+        <v>33.04131619655173</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>14.04282864238461</v>
+        <v>8.063805171713142</v>
       </c>
       <c r="N7">
-        <v>12.63003051016636</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>4.265778927937659</v>
+        <v>3.74602415401728</v>
       </c>
       <c r="D8">
-        <v>5.075799913610386</v>
+        <v>4.532196553980822</v>
       </c>
       <c r="E8">
-        <v>7.810829819917872</v>
+        <v>10.94712514433706</v>
       </c>
       <c r="F8">
-        <v>26.61565822493624</v>
+        <v>51.12671069312704</v>
       </c>
       <c r="G8">
-        <v>33.65721917602488</v>
+        <v>75.2217400770101</v>
       </c>
       <c r="H8">
-        <v>10.99159210355483</v>
+        <v>3.125946343070153</v>
       </c>
       <c r="I8">
-        <v>18.36563320407093</v>
+        <v>4.771005359747253</v>
       </c>
       <c r="J8">
-        <v>5.65463810170505</v>
+        <v>19.84485010318334</v>
       </c>
       <c r="K8">
-        <v>18.83678398552598</v>
+        <v>35.75939322717516</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>15.05339586175389</v>
+        <v>8.512762313400522</v>
       </c>
       <c r="N8">
-        <v>12.35282466260795</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>4.636230836413337</v>
+        <v>4.444511715132007</v>
       </c>
       <c r="D9">
-        <v>5.385843815738769</v>
+        <v>4.695724463255217</v>
       </c>
       <c r="E9">
-        <v>8.041103654650851</v>
+        <v>12.10991939343345</v>
       </c>
       <c r="F9">
-        <v>28.42794214072869</v>
+        <v>58.32457203962029</v>
       </c>
       <c r="G9">
-        <v>36.7235306571024</v>
+        <v>86.62681217796288</v>
       </c>
       <c r="H9">
-        <v>11.25210161362054</v>
+        <v>4.126029948932606</v>
       </c>
       <c r="I9">
-        <v>19.52288555585454</v>
+        <v>5.701623035564249</v>
       </c>
       <c r="J9">
-        <v>5.579274211548379</v>
+        <v>22.34315059877094</v>
       </c>
       <c r="K9">
-        <v>21.84345871634542</v>
+        <v>40.70602881657674</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>16.90970884480143</v>
+        <v>9.342008928750687</v>
       </c>
       <c r="N9">
-        <v>11.83169268697737</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>4.890287007603549</v>
+        <v>4.930300109868065</v>
       </c>
       <c r="D10">
-        <v>5.611118096654763</v>
+        <v>4.815863738209202</v>
       </c>
       <c r="E10">
-        <v>8.228832550290827</v>
+        <v>12.73764726438924</v>
       </c>
       <c r="F10">
-        <v>29.84870558140544</v>
+        <v>62.83421957989108</v>
       </c>
       <c r="G10">
-        <v>39.06504347919458</v>
+        <v>93.7981977733038</v>
       </c>
       <c r="H10">
-        <v>11.49778750242621</v>
+        <v>4.80430512763198</v>
       </c>
       <c r="I10">
-        <v>20.44243067835964</v>
+        <v>6.345150498886332</v>
       </c>
       <c r="J10">
-        <v>5.536847209436287</v>
+        <v>23.93568084006625</v>
       </c>
       <c r="K10">
-        <v>23.83984127550561</v>
+        <v>43.83177318331848</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>18.39705225530077</v>
+        <v>9.798464944961026</v>
       </c>
       <c r="N10">
-        <v>11.46099943240284</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>5.001742488216232</v>
+        <v>4.929104277517521</v>
       </c>
       <c r="D11">
-        <v>5.712731828056801</v>
+        <v>4.912243603477863</v>
       </c>
       <c r="E11">
-        <v>8.318326984133135</v>
+        <v>11.53597525148796</v>
       </c>
       <c r="F11">
-        <v>30.51370474953525</v>
+        <v>61.91728226284054</v>
       </c>
       <c r="G11">
-        <v>40.14744377102235</v>
+        <v>93.10339342545278</v>
       </c>
       <c r="H11">
-        <v>11.6223348924741</v>
+        <v>5.265900497533456</v>
       </c>
       <c r="I11">
-        <v>20.87556277340574</v>
+        <v>6.482692813270183</v>
       </c>
       <c r="J11">
-        <v>5.520618966567873</v>
+        <v>23.73179205055713</v>
       </c>
       <c r="K11">
-        <v>24.7032846359876</v>
+        <v>43.5495784470964</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>19.06711837524126</v>
+        <v>9.024552935799141</v>
       </c>
       <c r="N11">
-        <v>11.29466579947765</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>5.043344618198518</v>
+        <v>4.831030074766947</v>
       </c>
       <c r="D12">
-        <v>5.751063102433614</v>
+        <v>5.036978956503471</v>
       </c>
       <c r="E12">
-        <v>8.352810366849175</v>
+        <v>10.54793522121549</v>
       </c>
       <c r="F12">
-        <v>30.76816841100362</v>
+        <v>60.26551289158819</v>
       </c>
       <c r="G12">
-        <v>40.55968936259066</v>
+        <v>91.15178326394395</v>
       </c>
       <c r="H12">
-        <v>11.67141448674289</v>
+        <v>6.008576315420984</v>
       </c>
       <c r="I12">
-        <v>21.04169890428013</v>
+        <v>6.474876120453524</v>
       </c>
       <c r="J12">
-        <v>5.51493953995106</v>
+        <v>23.25394145292588</v>
       </c>
       <c r="K12">
-        <v>25.02393991264856</v>
+        <v>42.73259766394985</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>19.3160360035276</v>
+        <v>8.344804297856763</v>
       </c>
       <c r="N12">
-        <v>11.23198146870484</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>5.034411855959554</v>
+        <v>4.6692911440712</v>
       </c>
       <c r="D13">
-        <v>5.74281467784604</v>
+        <v>5.183015049063741</v>
       </c>
       <c r="E13">
-        <v>8.345357257038497</v>
+        <v>9.695198557860429</v>
       </c>
       <c r="F13">
-        <v>30.71324801429011</v>
+        <v>57.82230435188277</v>
       </c>
       <c r="G13">
-        <v>40.47080095133484</v>
+        <v>87.9186137338237</v>
       </c>
       <c r="H13">
-        <v>11.66075785871106</v>
+        <v>6.901623833927236</v>
       </c>
       <c r="I13">
-        <v>21.00582437570683</v>
+        <v>6.350941423456622</v>
       </c>
       <c r="J13">
-        <v>5.51614158206521</v>
+        <v>22.49113375404353</v>
       </c>
       <c r="K13">
-        <v>24.95515981329586</v>
+        <v>41.35375066993296</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>19.26264000504132</v>
+        <v>7.699668205051919</v>
       </c>
       <c r="N13">
-        <v>11.24546864917633</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>5.005177274498839</v>
+        <v>4.532345584721496</v>
       </c>
       <c r="D14">
-        <v>5.71588844540812</v>
+        <v>5.298136263295705</v>
       </c>
       <c r="E14">
-        <v>8.321152021298593</v>
+        <v>9.214137155036498</v>
       </c>
       <c r="F14">
-        <v>30.53458682947269</v>
+        <v>55.70896086306061</v>
       </c>
       <c r="G14">
-        <v>40.18131253138004</v>
+        <v>85.00791832375174</v>
       </c>
       <c r="H14">
-        <v>11.62633385224207</v>
+        <v>7.602790155129384</v>
       </c>
       <c r="I14">
-        <v>20.88918846858843</v>
+        <v>6.212358980174873</v>
       </c>
       <c r="J14">
-        <v>5.520142235172016</v>
+        <v>21.81372470956977</v>
       </c>
       <c r="K14">
-        <v>24.72979093191231</v>
+        <v>40.10328137432118</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>19.08769304661285</v>
+        <v>7.284737281607215</v>
       </c>
       <c r="N14">
-        <v>11.28950281772754</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>4.987191342213685</v>
+        <v>4.483734631694013</v>
       </c>
       <c r="D15">
-        <v>5.699375489601861</v>
+        <v>5.319520764243274</v>
       </c>
       <c r="E15">
-        <v>8.306403103383381</v>
+        <v>9.103138209490988</v>
       </c>
       <c r="F15">
-        <v>30.42549496681343</v>
+        <v>55.00048009402998</v>
       </c>
       <c r="G15">
-        <v>40.00429798824749</v>
+        <v>83.98155188858276</v>
       </c>
       <c r="H15">
-        <v>11.60550000315038</v>
+        <v>7.756817007331673</v>
       </c>
       <c r="I15">
-        <v>20.81802130163599</v>
+        <v>6.152253297321737</v>
       </c>
       <c r="J15">
-        <v>5.522654167957813</v>
+        <v>21.57859805791776</v>
       </c>
       <c r="K15">
-        <v>24.59092763619502</v>
+        <v>39.6558504270369</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>18.97990797331567</v>
+        <v>7.18165958413717</v>
       </c>
       <c r="N15">
-        <v>11.31651359473659</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>4.882919226789668</v>
+        <v>4.304804805200659</v>
       </c>
       <c r="D16">
-        <v>5.604457932334173</v>
+        <v>5.23074480843698</v>
       </c>
       <c r="E16">
-        <v>8.223066686434221</v>
+        <v>8.964838347837114</v>
       </c>
       <c r="F16">
-        <v>29.80561805075464</v>
+        <v>53.42808085056713</v>
       </c>
       <c r="G16">
-        <v>38.99464181364068</v>
+        <v>81.38134780498851</v>
       </c>
       <c r="H16">
-        <v>11.4899119555839</v>
+        <v>7.409757213776853</v>
       </c>
       <c r="I16">
-        <v>20.4144213794379</v>
+        <v>5.904712677573132</v>
       </c>
       <c r="J16">
-        <v>5.537971596462064</v>
+        <v>21.01125204469715</v>
       </c>
       <c r="K16">
-        <v>23.78252330643137</v>
+        <v>38.51703125703656</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>18.35258176768144</v>
+        <v>7.09359509044193</v>
       </c>
       <c r="N16">
-        <v>11.47191359164616</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>4.817888067912508</v>
+        <v>4.241026884309733</v>
       </c>
       <c r="D17">
-        <v>5.545989983797909</v>
+        <v>5.096795344996444</v>
       </c>
       <c r="E17">
-        <v>8.172994664580081</v>
+        <v>9.090382333740047</v>
       </c>
       <c r="F17">
-        <v>29.43009134771611</v>
+        <v>53.37732747213116</v>
       </c>
       <c r="G17">
-        <v>38.37956553995877</v>
+        <v>80.97272705394229</v>
       </c>
       <c r="H17">
-        <v>11.42233235171966</v>
+        <v>6.710719329524852</v>
       </c>
       <c r="I17">
-        <v>20.17060988589216</v>
+        <v>5.787101615695642</v>
       </c>
       <c r="J17">
-        <v>5.548171704456347</v>
+        <v>20.94452386560208</v>
       </c>
       <c r="K17">
-        <v>23.27522150329236</v>
+        <v>38.32235072673129</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>17.95904501377644</v>
+        <v>7.237483305583403</v>
       </c>
       <c r="N17">
-        <v>11.56781520900132</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>4.780096946510124</v>
+        <v>4.277255457825689</v>
       </c>
       <c r="D18">
-        <v>5.512280567049819</v>
+        <v>4.939337234709506</v>
       </c>
       <c r="E18">
-        <v>8.144579738146916</v>
+        <v>9.606437469636454</v>
       </c>
       <c r="F18">
-        <v>29.21585865459301</v>
+        <v>54.68881377596221</v>
       </c>
       <c r="G18">
-        <v>38.0274156132098</v>
+        <v>82.51259151204789</v>
       </c>
       <c r="H18">
-        <v>11.38466103842485</v>
+        <v>5.719542015314939</v>
       </c>
       <c r="I18">
-        <v>20.03177170346732</v>
+        <v>5.773396266972097</v>
       </c>
       <c r="J18">
-        <v>5.554326133816037</v>
+        <v>21.32299191307649</v>
       </c>
       <c r="K18">
-        <v>22.97921801850276</v>
+        <v>38.97372267489887</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>17.72946827136245</v>
+        <v>7.661223823884764</v>
       </c>
       <c r="N18">
-        <v>11.62319314553136</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>4.76723547988738</v>
+        <v>4.426532128752787</v>
       </c>
       <c r="D19">
-        <v>5.5008541283038</v>
+        <v>4.812090089951568</v>
       </c>
       <c r="E19">
-        <v>8.135024952944267</v>
+        <v>10.57342692850877</v>
       </c>
       <c r="F19">
-        <v>29.14362719611684</v>
+        <v>56.87324083351992</v>
       </c>
       <c r="G19">
-        <v>37.90846731462737</v>
+        <v>85.30263426281056</v>
       </c>
       <c r="H19">
-        <v>11.37210966679077</v>
+        <v>4.818278867274063</v>
       </c>
       <c r="I19">
-        <v>19.98500381079526</v>
+        <v>5.846469251354482</v>
       </c>
       <c r="J19">
-        <v>5.556458609826178</v>
+        <v>21.98322360482299</v>
       </c>
       <c r="K19">
-        <v>22.87826856807179</v>
+        <v>40.14696914993664</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>17.65118085176609</v>
+        <v>8.347354255466618</v>
       </c>
       <c r="N19">
-        <v>11.64198141297616</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>4.824850885854142</v>
+        <v>4.842399859062182</v>
       </c>
       <c r="D20">
-        <v>5.552222476538167</v>
+        <v>4.784428872128306</v>
       </c>
       <c r="E20">
-        <v>8.178285020328413</v>
+        <v>12.57028523147514</v>
       </c>
       <c r="F20">
-        <v>29.46988501149126</v>
+        <v>61.49779910970533</v>
       </c>
       <c r="G20">
-        <v>38.44487421694512</v>
+        <v>91.6573270971832</v>
       </c>
       <c r="H20">
-        <v>11.42940168961234</v>
+        <v>4.616550909189012</v>
       </c>
       <c r="I20">
-        <v>20.19641971993709</v>
+        <v>6.167837216959731</v>
       </c>
       <c r="J20">
-        <v>5.547055951911712</v>
+        <v>23.4542045183884</v>
       </c>
       <c r="K20">
-        <v>23.32966024296587</v>
+        <v>42.8607243616562</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>18.00127075536939</v>
+        <v>9.66720652998038</v>
       </c>
       <c r="N20">
-        <v>11.55758396833241</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>5.013780640450975</v>
+        <v>5.250012650584101</v>
       </c>
       <c r="D21">
-        <v>5.723801508372519</v>
+        <v>4.879439557546459</v>
       </c>
       <c r="E21">
-        <v>8.328245527277815</v>
+        <v>13.32393420230417</v>
       </c>
       <c r="F21">
-        <v>30.58699245762469</v>
+        <v>65.37412714158157</v>
       </c>
       <c r="G21">
-        <v>40.26627875861864</v>
+        <v>97.67331749588088</v>
       </c>
       <c r="H21">
-        <v>11.63639239385132</v>
+        <v>5.179581046230675</v>
       </c>
       <c r="I21">
-        <v>20.92338981287087</v>
+        <v>6.685484230959545</v>
       </c>
       <c r="J21">
-        <v>5.518954301271847</v>
+        <v>24.80804001113424</v>
       </c>
       <c r="K21">
-        <v>24.79615755528326</v>
+        <v>45.48941364702989</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>19.13920928121212</v>
+        <v>10.19234783702164</v>
       </c>
       <c r="N21">
-        <v>11.27656092576283</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>5.133735422435438</v>
+        <v>5.486508087707407</v>
       </c>
       <c r="D22">
-        <v>5.83506938988515</v>
+        <v>4.941135551869329</v>
       </c>
       <c r="E22">
-        <v>8.429717472992422</v>
+        <v>13.71329265176902</v>
       </c>
       <c r="F22">
-        <v>31.33248914595025</v>
+        <v>67.72687307790825</v>
       </c>
       <c r="G22">
-        <v>41.47044125017212</v>
+        <v>101.3652997478511</v>
       </c>
       <c r="H22">
-        <v>11.78287791975003</v>
+        <v>5.533217692798168</v>
       </c>
       <c r="I22">
-        <v>21.41085830613916</v>
+        <v>7.016934168284653</v>
       </c>
       <c r="J22">
-        <v>5.503316247083963</v>
+        <v>25.64291942958452</v>
       </c>
       <c r="K22">
-        <v>25.71786810799893</v>
+        <v>47.12193455996598</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>19.8548612203136</v>
+        <v>10.47233260945064</v>
       </c>
       <c r="N22">
-        <v>11.09464670024509</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>5.070038611315595</v>
+        <v>5.345709812673931</v>
       </c>
       <c r="D23">
-        <v>5.775769947316787</v>
+        <v>4.907811380234041</v>
       </c>
       <c r="E23">
-        <v>8.375241141782013</v>
+        <v>13.50466152937889</v>
       </c>
       <c r="F23">
-        <v>30.93320242071991</v>
+        <v>66.53693505836276</v>
       </c>
       <c r="G23">
-        <v>40.82651953849457</v>
+        <v>99.5081021351879</v>
       </c>
       <c r="H23">
-        <v>11.703644896756</v>
+        <v>5.348117528676729</v>
       </c>
       <c r="I23">
-        <v>21.14955795965997</v>
+        <v>6.843525929304498</v>
       </c>
       <c r="J23">
-        <v>5.511404473169129</v>
+        <v>25.22373763867856</v>
       </c>
       <c r="K23">
-        <v>25.229253333076</v>
+        <v>46.31339173081003</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>19.47543829545474</v>
+        <v>10.32626977487982</v>
       </c>
       <c r="N23">
-        <v>11.19158685594464</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>4.821704252810158</v>
+        <v>4.835757649720527</v>
       </c>
       <c r="D24">
-        <v>5.549405061955117</v>
+        <v>4.783773223132908</v>
       </c>
       <c r="E24">
-        <v>8.175892091691388</v>
+        <v>12.70289817135309</v>
       </c>
       <c r="F24">
-        <v>29.45188911373707</v>
+        <v>61.78967604872602</v>
       </c>
       <c r="G24">
-        <v>38.41534358957431</v>
+        <v>92.06494088237328</v>
       </c>
       <c r="H24">
-        <v>11.42620196898371</v>
+        <v>4.636861756633862</v>
       </c>
       <c r="I24">
-        <v>20.18474694293696</v>
+        <v>6.177807834857949</v>
       </c>
       <c r="J24">
-        <v>5.54755948136838</v>
+        <v>23.55134955804688</v>
       </c>
       <c r="K24">
-        <v>23.30506204357068</v>
+        <v>43.05615625462737</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>17.98219086829681</v>
+        <v>9.757409422979638</v>
       </c>
       <c r="N24">
-        <v>11.56220875382682</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>4.539119301837399</v>
+        <v>4.283166111136318</v>
       </c>
       <c r="D25">
-        <v>5.302290516568883</v>
+        <v>4.652099493145385</v>
       </c>
       <c r="E25">
-        <v>7.975572620059519</v>
+        <v>11.80592598854203</v>
       </c>
       <c r="F25">
-        <v>27.92170134434137</v>
+        <v>56.35129143175826</v>
       </c>
       <c r="G25">
-        <v>35.87758236150241</v>
+        <v>83.4955619394182</v>
       </c>
       <c r="H25">
-        <v>11.17243411714779</v>
+        <v>3.855145840886207</v>
       </c>
       <c r="I25">
-        <v>19.1975445288793</v>
+        <v>5.448672440703943</v>
       </c>
       <c r="J25">
-        <v>5.597472589045846</v>
+        <v>21.64899882550488</v>
       </c>
       <c r="K25">
-        <v>21.06786648071594</v>
+        <v>39.32132791582067</v>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>16.42190945440655</v>
+        <v>9.119062527940759</v>
       </c>
       <c r="N25">
-        <v>11.97042099178572</v>
-      </c>
-      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,988 +421,1138 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.824489540852509</v>
+        <v>6.248562661493655</v>
       </c>
       <c r="D2">
-        <v>4.554366703928786</v>
+        <v>4.68429113858619</v>
       </c>
       <c r="E2">
-        <v>11.11098937968455</v>
+        <v>11.22268319126443</v>
       </c>
       <c r="F2">
-        <v>52.24032131867952</v>
+        <v>46.59973073653084</v>
       </c>
       <c r="G2">
-        <v>77.00571329478497</v>
+        <v>66.71483292365281</v>
       </c>
       <c r="H2">
-        <v>3.270907504593446</v>
+        <v>2.941594228660851</v>
       </c>
       <c r="I2">
-        <v>4.906224172470758</v>
+        <v>4.501649087860271</v>
       </c>
       <c r="J2">
-        <v>20.2331940844812</v>
+        <v>18.44300086453436</v>
       </c>
       <c r="K2">
-        <v>36.54613041167082</v>
+        <v>31.00744347681337</v>
       </c>
       <c r="L2">
-        <v>8.634322313226326</v>
+        <v>25.28270386754124</v>
+      </c>
+      <c r="M2">
+        <v>21.59854043787497</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>8.362516971800424</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.53234335357496</v>
+        <v>5.733785300756799</v>
       </c>
       <c r="D3">
-        <v>4.488316343830794</v>
+        <v>4.627448610213778</v>
       </c>
       <c r="E3">
-        <v>10.62345571708195</v>
+        <v>10.75055579376038</v>
       </c>
       <c r="F3">
-        <v>49.19104399068354</v>
+        <v>44.08621978273936</v>
       </c>
       <c r="G3">
-        <v>72.14742273790246</v>
+        <v>62.74407555409623</v>
       </c>
       <c r="H3">
-        <v>2.857616637352057</v>
+        <v>2.591517120874346</v>
       </c>
       <c r="I3">
-        <v>4.522768110351237</v>
+        <v>4.204517414542405</v>
       </c>
       <c r="J3">
-        <v>19.18537915977979</v>
+        <v>17.60285804407688</v>
       </c>
       <c r="K3">
-        <v>34.45626957139115</v>
+        <v>29.4332201665103</v>
       </c>
       <c r="L3">
-        <v>8.287629514263207</v>
+        <v>24.41013379408656</v>
+      </c>
+      <c r="M3">
+        <v>20.04879663581641</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>8.056694914723806</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.350830858341725</v>
+        <v>5.407200586487349</v>
       </c>
       <c r="D4">
-        <v>4.447432112657749</v>
+        <v>4.593101736026718</v>
       </c>
       <c r="E4">
-        <v>10.31472007107819</v>
+        <v>10.45109517021069</v>
       </c>
       <c r="F4">
-        <v>47.23253143862307</v>
+        <v>42.47017122971719</v>
       </c>
       <c r="G4">
-        <v>69.01117724519298</v>
+        <v>60.17978147939769</v>
       </c>
       <c r="H4">
-        <v>2.59693122306647</v>
+        <v>2.369774404987314</v>
       </c>
       <c r="I4">
-        <v>4.281317854485675</v>
+        <v>4.016791645144644</v>
       </c>
       <c r="J4">
-        <v>18.51662238130324</v>
+        <v>17.06409799671067</v>
       </c>
       <c r="K4">
-        <v>33.11252798541568</v>
+        <v>28.4196709561836</v>
       </c>
       <c r="L4">
-        <v>8.067755676317981</v>
+        <v>23.84207230350345</v>
+      </c>
+      <c r="M4">
+        <v>19.0570072847855</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>7.862484048222694</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.281902234382717</v>
+        <v>5.28227943149974</v>
       </c>
       <c r="D5">
-        <v>4.430823199298494</v>
+        <v>4.580385413702915</v>
       </c>
       <c r="E5">
-        <v>10.18712449386292</v>
+        <v>10.32742058286237</v>
       </c>
       <c r="F5">
-        <v>46.39334620124393</v>
+        <v>41.77600217683121</v>
       </c>
       <c r="G5">
-        <v>67.65993679438658</v>
+        <v>59.07186804676536</v>
       </c>
       <c r="H5">
-        <v>2.488000558398918</v>
+        <v>2.276969399386902</v>
       </c>
       <c r="I5">
-        <v>4.180442047752214</v>
+        <v>3.938503955111068</v>
       </c>
       <c r="J5">
-        <v>18.23002511818887</v>
+        <v>16.83196208902896</v>
       </c>
       <c r="K5">
-        <v>32.53062402763481</v>
+        <v>27.97788101163344</v>
       </c>
       <c r="L5">
-        <v>7.975589754511477</v>
+        <v>23.58950035947504</v>
+      </c>
+      <c r="M5">
+        <v>18.63011246892354</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7.781067108047663</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.277375048283798</v>
+        <v>5.274643394577895</v>
       </c>
       <c r="D6">
-        <v>4.428259465617091</v>
+        <v>4.579702164472194</v>
       </c>
       <c r="E6">
-        <v>10.1664975809377</v>
+        <v>10.30762568547278</v>
       </c>
       <c r="F6">
-        <v>46.22859623985997</v>
+        <v>41.63802808215952</v>
       </c>
       <c r="G6">
-        <v>67.3906168468915</v>
+        <v>58.84749309751157</v>
       </c>
       <c r="H6">
-        <v>2.46872548349467</v>
+        <v>2.260615160585949</v>
       </c>
       <c r="I6">
-        <v>4.162628585110443</v>
+        <v>3.925081945405382</v>
       </c>
       <c r="J6">
-        <v>18.1724292088618</v>
+        <v>16.78452701342865</v>
       </c>
       <c r="K6">
-        <v>32.40944743772514</v>
+        <v>27.88280393317688</v>
       </c>
       <c r="L6">
-        <v>7.959177441181319</v>
+        <v>23.53122348409638</v>
+      </c>
+      <c r="M6">
+        <v>18.5425977153601</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>7.766614914325075</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>3.368239801673826</v>
+        <v>5.430772776058345</v>
       </c>
       <c r="D7">
-        <v>4.447717929619553</v>
+        <v>4.599552853839901</v>
       </c>
       <c r="E7">
-        <v>10.3148834402033</v>
+        <v>10.45361778764143</v>
       </c>
       <c r="F7">
-        <v>47.15664330619398</v>
+        <v>42.36754159339043</v>
       </c>
       <c r="G7">
-        <v>68.87907179712464</v>
+        <v>60.14032506798044</v>
       </c>
       <c r="H7">
-        <v>2.592541075175513</v>
+        <v>2.365186402252808</v>
       </c>
       <c r="I7">
-        <v>4.277075157066059</v>
+        <v>4.013371887184569</v>
       </c>
       <c r="J7">
-        <v>18.48687970353945</v>
+        <v>16.95869647423424</v>
       </c>
       <c r="K7">
-        <v>33.04131619655173</v>
+        <v>28.33286019377264</v>
       </c>
       <c r="L7">
-        <v>8.063805171713142</v>
+        <v>23.77793512539851</v>
+      </c>
+      <c r="M7">
+        <v>18.98939351989938</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>7.857899673101197</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3.74602415401728</v>
+        <v>6.085529275553168</v>
       </c>
       <c r="D8">
-        <v>4.532196553980822</v>
+        <v>4.678947647102621</v>
       </c>
       <c r="E8">
-        <v>10.94712514433706</v>
+        <v>11.0707402046602</v>
       </c>
       <c r="F8">
-        <v>51.12671069312704</v>
+        <v>45.56666096821367</v>
       </c>
       <c r="G8">
-        <v>75.2217400770101</v>
+        <v>65.48681678583851</v>
       </c>
       <c r="H8">
-        <v>3.125946343070153</v>
+        <v>2.815951144488044</v>
       </c>
       <c r="I8">
-        <v>4.771005359747253</v>
+        <v>4.394618670882427</v>
       </c>
       <c r="J8">
-        <v>19.84485010318334</v>
+        <v>17.88032806161244</v>
       </c>
       <c r="K8">
-        <v>35.75939322717516</v>
+        <v>30.32810343449428</v>
       </c>
       <c r="L8">
-        <v>8.512762313400522</v>
+        <v>24.87930573511323</v>
+      </c>
+      <c r="M8">
+        <v>20.96058266647954</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>8.251676616007767</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.444511715132007</v>
+        <v>7.269555700881377</v>
       </c>
       <c r="D9">
-        <v>4.695724463255217</v>
+        <v>4.822615603100695</v>
       </c>
       <c r="E9">
-        <v>12.10991939343345</v>
+        <v>12.19286332315401</v>
       </c>
       <c r="F9">
-        <v>58.32457203962029</v>
+        <v>51.47630108872752</v>
       </c>
       <c r="G9">
-        <v>86.62681217796288</v>
+        <v>74.84031418563501</v>
       </c>
       <c r="H9">
-        <v>4.126029948932606</v>
+        <v>3.65620549725648</v>
       </c>
       <c r="I9">
-        <v>5.701623035564249</v>
+        <v>5.109707211497521</v>
       </c>
       <c r="J9">
-        <v>22.34315059877094</v>
+        <v>19.8302099425182</v>
       </c>
       <c r="K9">
-        <v>40.70602881657674</v>
+        <v>34.04288756827235</v>
       </c>
       <c r="L9">
-        <v>9.342008928750687</v>
+        <v>26.9193092100387</v>
+      </c>
+      <c r="M9">
+        <v>24.63080329775683</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>8.980204857979318</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.930300109868065</v>
+        <v>8.003393671388096</v>
       </c>
       <c r="D10">
-        <v>4.815863738209202</v>
+        <v>4.920004881531041</v>
       </c>
       <c r="E10">
-        <v>12.73764726438924</v>
+        <v>12.78478768050914</v>
       </c>
       <c r="F10">
-        <v>62.83421957989108</v>
+        <v>54.977483869214</v>
       </c>
       <c r="G10">
-        <v>93.7981977733038</v>
+        <v>81.0392028789872</v>
       </c>
       <c r="H10">
-        <v>4.80430512763198</v>
+        <v>4.214414204744827</v>
       </c>
       <c r="I10">
-        <v>6.345150498886332</v>
+        <v>5.595030143297251</v>
       </c>
       <c r="J10">
-        <v>23.93568084006625</v>
+        <v>20.6725382812363</v>
       </c>
       <c r="K10">
-        <v>43.83177318331848</v>
+        <v>36.25156508052829</v>
       </c>
       <c r="L10">
-        <v>9.798464944961026</v>
+        <v>28.05422195721896</v>
+      </c>
+      <c r="M10">
+        <v>26.89216202670768</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>9.360764357115249</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.929104277517521</v>
+        <v>7.785090640895284</v>
       </c>
       <c r="D11">
-        <v>4.912243603477863</v>
+        <v>4.768936995438256</v>
       </c>
       <c r="E11">
-        <v>11.53597525148796</v>
+        <v>11.46975451506687</v>
       </c>
       <c r="F11">
-        <v>61.91728226284054</v>
+        <v>53.68257668759944</v>
       </c>
       <c r="G11">
-        <v>93.10339342545278</v>
+        <v>81.06594254699128</v>
       </c>
       <c r="H11">
-        <v>5.265900497533456</v>
+        <v>4.705050005320498</v>
       </c>
       <c r="I11">
-        <v>6.482692813270183</v>
+        <v>5.695012126971674</v>
       </c>
       <c r="J11">
-        <v>23.73179205055713</v>
+        <v>19.64056223728932</v>
       </c>
       <c r="K11">
-        <v>43.5495784470964</v>
+        <v>35.69407282119155</v>
       </c>
       <c r="L11">
-        <v>9.024552935799141</v>
+        <v>27.41982550894759</v>
+      </c>
+      <c r="M11">
+        <v>26.70913902682206</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>8.567236822298087</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.831030074766947</v>
+        <v>7.443391364637508</v>
       </c>
       <c r="D12">
-        <v>5.036978956503471</v>
+        <v>4.666152485560504</v>
       </c>
       <c r="E12">
-        <v>10.54793522121549</v>
+        <v>10.35901695067903</v>
       </c>
       <c r="F12">
-        <v>60.26551289158819</v>
+        <v>52.01150651739395</v>
       </c>
       <c r="G12">
-        <v>91.15178326394395</v>
+        <v>79.70184022608575</v>
       </c>
       <c r="H12">
-        <v>6.008576315420984</v>
+        <v>5.534108588219541</v>
       </c>
       <c r="I12">
-        <v>6.474876120453524</v>
+        <v>5.688545661680773</v>
       </c>
       <c r="J12">
-        <v>23.25394145292588</v>
+        <v>18.84780195619617</v>
       </c>
       <c r="K12">
-        <v>42.73259766394985</v>
+        <v>34.89585051545264</v>
       </c>
       <c r="L12">
-        <v>8.344804297856763</v>
+        <v>26.74810427192725</v>
+      </c>
+      <c r="M12">
+        <v>26.18629545085328</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>7.89299668527021</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.6692911440712</v>
+        <v>7.029068524244077</v>
       </c>
       <c r="D13">
-        <v>5.183015049063741</v>
+        <v>4.610431946371229</v>
       </c>
       <c r="E13">
-        <v>9.695198557860429</v>
+        <v>9.3714305089173</v>
       </c>
       <c r="F13">
-        <v>57.82230435188277</v>
+        <v>49.90170314595788</v>
       </c>
       <c r="G13">
-        <v>87.9186137338237</v>
+        <v>76.8614088301313</v>
       </c>
       <c r="H13">
-        <v>6.901623833927236</v>
+        <v>6.526503667854374</v>
       </c>
       <c r="I13">
-        <v>6.350941423456622</v>
+        <v>5.600115237749898</v>
       </c>
       <c r="J13">
-        <v>22.49113375404353</v>
+        <v>18.3064834165994</v>
       </c>
       <c r="K13">
-        <v>41.35375066993296</v>
+        <v>33.82177908178259</v>
       </c>
       <c r="L13">
-        <v>7.699668205051919</v>
+        <v>25.97354359489409</v>
+      </c>
+      <c r="M13">
+        <v>25.33931163536503</v>
       </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>7.277723881705075</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4.532345584721496</v>
+        <v>6.707909950165288</v>
       </c>
       <c r="D14">
-        <v>5.298136263295705</v>
+        <v>4.610880591911994</v>
       </c>
       <c r="E14">
-        <v>9.214137155036498</v>
+        <v>8.79548532459693</v>
       </c>
       <c r="F14">
-        <v>55.70896086306061</v>
+        <v>48.182478477271</v>
       </c>
       <c r="G14">
-        <v>85.00791832375174</v>
+        <v>74.1482759464772</v>
       </c>
       <c r="H14">
-        <v>7.602790155129384</v>
+        <v>7.293552854854497</v>
       </c>
       <c r="I14">
-        <v>6.212358980174873</v>
+        <v>5.501653505005907</v>
       </c>
       <c r="J14">
-        <v>21.81372470956977</v>
+        <v>18.02098915835144</v>
       </c>
       <c r="K14">
-        <v>40.10328137432118</v>
+        <v>32.9163680403561</v>
       </c>
       <c r="L14">
-        <v>7.284737281607215</v>
+        <v>25.36360315036791</v>
+      </c>
+      <c r="M14">
+        <v>24.57748477116969</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>6.896030032032144</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4.483734631694013</v>
+        <v>6.618954025833062</v>
       </c>
       <c r="D15">
-        <v>5.319520764243274</v>
+        <v>4.614550833915859</v>
       </c>
       <c r="E15">
-        <v>9.103138209490988</v>
+        <v>8.665912770805923</v>
       </c>
       <c r="F15">
-        <v>55.00048009402998</v>
+        <v>47.64302951060526</v>
       </c>
       <c r="G15">
-        <v>83.98155188858276</v>
+        <v>73.14304012314062</v>
       </c>
       <c r="H15">
-        <v>7.756817007331673</v>
+        <v>7.465721314663774</v>
       </c>
       <c r="I15">
-        <v>6.152253297321737</v>
+        <v>5.459199226439279</v>
       </c>
       <c r="J15">
-        <v>21.57859805791776</v>
+        <v>17.98435811778645</v>
       </c>
       <c r="K15">
-        <v>39.6558504270369</v>
+        <v>32.61335410124116</v>
       </c>
       <c r="L15">
-        <v>7.18165958413717</v>
+        <v>25.17536994093334</v>
+      </c>
+      <c r="M15">
+        <v>24.30433022647763</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>6.805625664137835</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>4.304804805200659</v>
+        <v>6.436107949027278</v>
       </c>
       <c r="D16">
-        <v>5.23074480843698</v>
+        <v>4.590440799082749</v>
       </c>
       <c r="E16">
-        <v>8.964838347837114</v>
+        <v>8.571834523673131</v>
       </c>
       <c r="F16">
-        <v>53.42808085056713</v>
+        <v>46.69226696399753</v>
       </c>
       <c r="G16">
-        <v>81.38134780498851</v>
+        <v>70.34581680124251</v>
       </c>
       <c r="H16">
-        <v>7.409757213776853</v>
+        <v>7.150894268801403</v>
       </c>
       <c r="I16">
-        <v>5.904712677573132</v>
+        <v>5.279954058662534</v>
       </c>
       <c r="J16">
-        <v>21.01125204469715</v>
+        <v>18.27502593386123</v>
       </c>
       <c r="K16">
-        <v>38.51703125703656</v>
+        <v>31.98898258746001</v>
       </c>
       <c r="L16">
-        <v>7.09359509044193</v>
+        <v>24.91624397725158</v>
+      </c>
+      <c r="M16">
+        <v>23.59240752413051</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>6.75268500303942</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.241026884309733</v>
+        <v>6.466629130882155</v>
       </c>
       <c r="D17">
-        <v>5.096795344996444</v>
+        <v>4.557107408853754</v>
       </c>
       <c r="E17">
-        <v>9.090382333740047</v>
+        <v>8.777527455465146</v>
       </c>
       <c r="F17">
-        <v>53.37732747213116</v>
+        <v>46.86411430522939</v>
       </c>
       <c r="G17">
-        <v>80.97272705394229</v>
+        <v>69.77331849571885</v>
       </c>
       <c r="H17">
-        <v>6.710719329524852</v>
+        <v>6.445065604851489</v>
       </c>
       <c r="I17">
-        <v>5.787101615695642</v>
+        <v>5.192598564895254</v>
       </c>
       <c r="J17">
-        <v>20.94452386560208</v>
+        <v>18.55846172207256</v>
       </c>
       <c r="K17">
-        <v>38.32235072673129</v>
+        <v>31.97340622548264</v>
       </c>
       <c r="L17">
-        <v>7.237483305583403</v>
+        <v>25.02962237235392</v>
+      </c>
+      <c r="M17">
+        <v>23.43661073001914</v>
       </c>
       <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>6.90438047312487</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>4.277255457825689</v>
+        <v>6.685063417933769</v>
       </c>
       <c r="D18">
-        <v>4.939337234709506</v>
+        <v>4.547992276113414</v>
       </c>
       <c r="E18">
-        <v>9.606437469636454</v>
+        <v>9.406610563905085</v>
       </c>
       <c r="F18">
-        <v>54.68881377596221</v>
+        <v>48.13088971706654</v>
       </c>
       <c r="G18">
-        <v>82.51259151204789</v>
+        <v>71.01899715281716</v>
       </c>
       <c r="H18">
-        <v>5.719542015314939</v>
+        <v>5.404266339789024</v>
       </c>
       <c r="I18">
-        <v>5.773396266972097</v>
+        <v>5.179445212334038</v>
       </c>
       <c r="J18">
-        <v>21.32299191307649</v>
+        <v>19.02508518340298</v>
       </c>
       <c r="K18">
-        <v>38.97372267489887</v>
+        <v>32.56889124717462</v>
       </c>
       <c r="L18">
-        <v>7.661223823884764</v>
+        <v>25.54237139174919</v>
+      </c>
+      <c r="M18">
+        <v>23.81172498629777</v>
       </c>
       <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>7.317638082959512</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.426532128752787</v>
+        <v>7.096903646361325</v>
       </c>
       <c r="D19">
-        <v>4.812090089951568</v>
+        <v>4.616715318061753</v>
       </c>
       <c r="E19">
-        <v>10.57342692850877</v>
+        <v>10.49369054846884</v>
       </c>
       <c r="F19">
-        <v>56.87324083351992</v>
+        <v>50.09591279492951</v>
       </c>
       <c r="G19">
-        <v>85.30263426281056</v>
+        <v>73.39484081152239</v>
       </c>
       <c r="H19">
-        <v>4.818278867274063</v>
+        <v>4.410464261665306</v>
       </c>
       <c r="I19">
-        <v>5.846469251354482</v>
+        <v>5.232306892737695</v>
       </c>
       <c r="J19">
-        <v>21.98322360482299</v>
+        <v>19.62139138432201</v>
       </c>
       <c r="K19">
-        <v>40.14696914993664</v>
+        <v>33.53143502185396</v>
       </c>
       <c r="L19">
-        <v>8.347354255466618</v>
+        <v>26.28015028636505</v>
+      </c>
+      <c r="M19">
+        <v>24.52472762783526</v>
       </c>
       <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>7.984127967511879</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>4.842399859062182</v>
+        <v>7.918301903277566</v>
       </c>
       <c r="D20">
-        <v>4.784428872128306</v>
+        <v>4.894668751413612</v>
       </c>
       <c r="E20">
-        <v>12.57028523147514</v>
+        <v>12.62300179962846</v>
       </c>
       <c r="F20">
-        <v>61.49779910970533</v>
+        <v>54.02213323705662</v>
       </c>
       <c r="G20">
-        <v>91.6573270971832</v>
+        <v>78.96304847723098</v>
       </c>
       <c r="H20">
-        <v>4.616550909189012</v>
+        <v>4.064103620436396</v>
       </c>
       <c r="I20">
-        <v>6.167837216959731</v>
+        <v>5.468605575360392</v>
       </c>
       <c r="J20">
-        <v>23.4542045183884</v>
+        <v>20.62877860831311</v>
       </c>
       <c r="K20">
-        <v>42.8607243616562</v>
+        <v>35.60727170500367</v>
       </c>
       <c r="L20">
-        <v>9.66720652998038</v>
+        <v>27.70664547662101</v>
+      </c>
+      <c r="M20">
+        <v>26.25147110822702</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>9.254684078818503</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.250012650584101</v>
+        <v>8.408644224290786</v>
       </c>
       <c r="D21">
-        <v>4.879439557546459</v>
+        <v>5.073439330484309</v>
       </c>
       <c r="E21">
-        <v>13.32393420230417</v>
+        <v>13.39419062679318</v>
       </c>
       <c r="F21">
-        <v>65.37412714158157</v>
+        <v>56.5650533577137</v>
       </c>
       <c r="G21">
-        <v>97.67331749588088</v>
+        <v>85.26830796100403</v>
       </c>
       <c r="H21">
-        <v>5.179581046230675</v>
+        <v>4.509766775331537</v>
       </c>
       <c r="I21">
-        <v>6.685484230959545</v>
+        <v>5.838552034409647</v>
       </c>
       <c r="J21">
-        <v>24.80804001113424</v>
+        <v>20.18634534676573</v>
       </c>
       <c r="K21">
-        <v>45.48941364702989</v>
+        <v>37.13159604916014</v>
       </c>
       <c r="L21">
-        <v>10.19234783702164</v>
+        <v>28.4604195781596</v>
+      </c>
+      <c r="M21">
+        <v>27.84600836561562</v>
       </c>
       <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>9.698624663166576</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.486508087707407</v>
+        <v>8.659380970472149</v>
       </c>
       <c r="D22">
-        <v>4.941135551869329</v>
+        <v>5.177868642912117</v>
       </c>
       <c r="E22">
-        <v>13.71329265176902</v>
+        <v>13.78969118298897</v>
       </c>
       <c r="F22">
-        <v>67.72687307790825</v>
+        <v>58.04740570000625</v>
       </c>
       <c r="G22">
-        <v>101.3652997478511</v>
+        <v>89.22570195375752</v>
       </c>
       <c r="H22">
-        <v>5.533217692798168</v>
+        <v>4.786549567553282</v>
       </c>
       <c r="I22">
-        <v>7.016934168284653</v>
+        <v>6.072416549568513</v>
       </c>
       <c r="J22">
-        <v>25.64291942958452</v>
+        <v>19.79800292241457</v>
       </c>
       <c r="K22">
-        <v>47.12193455996598</v>
+        <v>38.04884576135513</v>
       </c>
       <c r="L22">
-        <v>10.47233260945064</v>
+        <v>28.89933255700085</v>
+      </c>
+      <c r="M22">
+        <v>28.82057179683619</v>
       </c>
       <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>9.925381617919566</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.345709812673931</v>
+        <v>8.514770049998512</v>
       </c>
       <c r="D23">
-        <v>4.907811380234041</v>
+        <v>5.108528240754266</v>
       </c>
       <c r="E23">
-        <v>13.50466152937889</v>
+        <v>13.57267771278951</v>
       </c>
       <c r="F23">
-        <v>66.53693505836276</v>
+        <v>57.38414956145568</v>
       </c>
       <c r="G23">
-        <v>99.5081021351879</v>
+        <v>87.06381905494518</v>
       </c>
       <c r="H23">
-        <v>5.348117528676729</v>
+        <v>4.643665850324777</v>
       </c>
       <c r="I23">
-        <v>6.843525929304498</v>
+        <v>5.951108573291819</v>
       </c>
       <c r="J23">
-        <v>25.22373763867856</v>
+        <v>20.19217183631721</v>
       </c>
       <c r="K23">
-        <v>46.31339173081003</v>
+        <v>37.66328604429218</v>
       </c>
       <c r="L23">
-        <v>10.32626977487982</v>
+        <v>28.74153433549457</v>
+      </c>
+      <c r="M23">
+        <v>28.38052209125679</v>
       </c>
       <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>9.809631729222072</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>4.835757649720527</v>
+        <v>7.910458353351811</v>
       </c>
       <c r="D24">
-        <v>4.783773223132908</v>
+        <v>4.909786804696248</v>
       </c>
       <c r="E24">
-        <v>12.70289817135309</v>
+        <v>12.7630686375022</v>
       </c>
       <c r="F24">
-        <v>61.78967604872602</v>
+        <v>54.28971574331026</v>
       </c>
       <c r="G24">
-        <v>92.06494088237328</v>
+        <v>79.30968004803594</v>
       </c>
       <c r="H24">
-        <v>4.636861756633862</v>
+        <v>4.081188103737118</v>
       </c>
       <c r="I24">
-        <v>6.177807834857949</v>
+        <v>5.473654468720678</v>
       </c>
       <c r="J24">
-        <v>23.55134955804688</v>
+        <v>20.72616312779289</v>
       </c>
       <c r="K24">
-        <v>43.05615625462737</v>
+        <v>35.7779786805392</v>
       </c>
       <c r="L24">
-        <v>9.757409422979638</v>
+        <v>27.83960551441774</v>
+      </c>
+      <c r="M24">
+        <v>26.37582553774782</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>9.343091199564439</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>4.283166111136318</v>
+        <v>7.021214343913547</v>
       </c>
       <c r="D25">
-        <v>4.652099493145385</v>
+        <v>4.786176678666735</v>
       </c>
       <c r="E25">
-        <v>11.80592598854203</v>
+        <v>11.89912791115863</v>
       </c>
       <c r="F25">
-        <v>56.35129143175826</v>
+        <v>49.89495918893225</v>
       </c>
       <c r="G25">
-        <v>83.4955619394182</v>
+        <v>72.16606469245048</v>
       </c>
       <c r="H25">
-        <v>3.855145840886207</v>
+        <v>3.431481597682297</v>
       </c>
       <c r="I25">
-        <v>5.448672440703943</v>
+        <v>4.919402484335418</v>
       </c>
       <c r="J25">
-        <v>21.64899882550488</v>
+        <v>19.38657884800532</v>
       </c>
       <c r="K25">
-        <v>39.32132791582067</v>
+        <v>33.02152013353517</v>
       </c>
       <c r="L25">
-        <v>9.119062527940759</v>
+        <v>26.35158825085159</v>
+      </c>
+      <c r="M25">
+        <v>23.63106340785451</v>
       </c>
       <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+        <v>8.786602151782406</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
